--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B9D84C-CD93-F44F-8D80-D675B2205489}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="460" windowWidth="28620" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33540" yWindow="465" windowWidth="28620" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="c.elegans-info" sheetId="4" r:id="rId1"/>
@@ -160,16 +154,16 @@
     <t>Size of ref genome file</t>
   </si>
   <si>
-    <t>time -p angsd -GL 2 -i /N/dc2/scratch/grthomas/qtip/jsinuosa/mapped/SRR5380902.bam -ref /N/dc2/scratch/grthomas/qtip/jsinuosa/assembly/Trinity.fasta -minQ 0 -doGlf 4 -out jsinuosa-angsd</t>
-  </si>
-  <si>
     <t>Size of referee output</t>
+  </si>
+  <si>
+    <t>time -p angsd -GL 2 -i /N/dc2/scratch/grthomas/qtip/jsinuosa/mapped/SRR5380902-header.bam -ref /N/dc2/scratch/grthomas/qtip/jsinuosa/assembly/Trinity.fasta -minQ 0 -doGlf 4 -out jsinuosa-angsd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,26 +288,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,23 +323,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,16 +498,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -587,7 +547,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -635,7 +595,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -704,21 +664,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1608,21 +1568,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2511,21 +2471,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -70,9 +70,6 @@
     <t>File 4</t>
   </si>
   <si>
-    <t>Scaffolds</t>
-  </si>
-  <si>
     <t>Bases</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>ANGSD genotype likelihood file size (compressed)</t>
   </si>
   <si>
-    <t>1.371 GB</t>
-  </si>
-  <si>
     <t>seconds</t>
   </si>
   <si>
@@ -157,7 +151,13 @@
     <t>Size of referee output</t>
   </si>
   <si>
-    <t>time -p angsd -GL 2 -i /N/dc2/scratch/grthomas/qtip/jsinuosa/mapped/SRR5380902-header.bam -ref /N/dc2/scratch/grthomas/qtip/jsinuosa/assembly/Trinity.fasta -minQ 0 -doGlf 4 -out jsinuosa-angsd</t>
+    <t>time -p angsd -GL 2 -i /N/dc2/scratch/grthomas/qtip/jsinuosa/mapped/SRR5380902-sorted.bam -ref /N/dc2/scratch/grthomas/qtip/jsinuosa/assembly/Trinity.fasta -minQ 0 -doGlf 4 -out jsinuosa-angsd</t>
+  </si>
+  <si>
+    <t>912.75 MB</t>
+  </si>
+  <si>
+    <t>Transcripts</t>
   </si>
 </sst>
 </file>
@@ -502,160 +502,161 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>750.47</v>
+        <v>478.79</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>212</v>
+        <v>55567</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>99265117</v>
+        <v>50283993</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>96250753</v>
+        <v>48791504</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="-33540" yWindow="465" windowWidth="28620" windowHeight="16320"/>
   </bookViews>
   <sheets>
-    <sheet name="c.elegans-info" sheetId="4" r:id="rId1"/>
+    <sheet name="j.sinuosa-info" sheetId="4" r:id="rId1"/>
     <sheet name="fasta-method-1" sheetId="1" r:id="rId2"/>
     <sheet name="fasta-method-2" sheetId="2" r:id="rId3"/>
     <sheet name="fasta-method-3" sheetId="3" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
   <si>
     <t>Num procs</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Sites where all reads match reference</t>
   </si>
   <si>
-    <t>Overlap betwee l_mismatch = 0 and all reads match reference</t>
-  </si>
-  <si>
     <t>Avg. depth of l_mismatch = 0</t>
   </si>
   <si>
@@ -158,6 +155,21 @@
   </si>
   <si>
     <t>Transcripts</t>
+  </si>
+  <si>
+    <t>File 1 calcs done</t>
+  </si>
+  <si>
+    <t>Adding unmapped</t>
+  </si>
+  <si>
+    <t>File 1 unmapped done</t>
+  </si>
+  <si>
+    <t>1.67 GB</t>
+  </si>
+  <si>
+    <t>Overlap between l_mismatch = 0 and all reads match reference</t>
   </si>
 </sst>
 </file>
@@ -502,7 +514,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,66 +525,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>478.79</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>55567</v>
@@ -596,27 +608,39 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
+      <c r="B12">
+        <v>1487227</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
+      <c r="B13">
+        <v>1701604</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -631,32 +655,32 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -666,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,16 +734,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2.4485588073700003E-4</v>
+        <v>4.6949386596700001E-3</v>
       </c>
       <c r="D2">
-        <v>2.4485588073700003E-4</v>
+        <v>4.6949386596700001E-3</v>
       </c>
       <c r="E2">
-        <v>17.69921875</v>
+        <v>13.04296875</v>
       </c>
       <c r="F2">
-        <v>162.546875</v>
+        <v>142.9765625</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -730,16 +754,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1.72581505775</v>
+        <v>0.72948908805799995</v>
       </c>
       <c r="D3">
-        <v>1.7260599136400001</v>
+        <v>0.73418402671799998</v>
       </c>
       <c r="E3">
-        <v>17.7109375</v>
+        <v>31.1171875</v>
       </c>
       <c r="F3">
-        <v>162.546875</v>
+        <v>161.02734375</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -747,19 +771,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C4">
-        <v>1625.41227794</v>
+        <v>862.50720691699996</v>
       </c>
       <c r="D4">
-        <v>1627.13833785</v>
+        <v>863.24139094400005</v>
       </c>
       <c r="E4">
-        <v>22.09765625</v>
+        <v>31.36328125</v>
       </c>
       <c r="F4">
-        <v>166.8984375</v>
+        <v>161.16015625</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -767,19 +791,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C5">
-        <v>1625.41412401</v>
+        <v>1.8799304962199999E-3</v>
       </c>
       <c r="D5">
-        <v>1627.1401839299999</v>
+        <v>863.24327087400002</v>
       </c>
       <c r="E5">
-        <v>22.09765625</v>
+        <v>31.36328125</v>
       </c>
       <c r="F5">
-        <v>166.8984375</v>
+        <v>161.16015625</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -787,779 +811,39 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>257.91841912299998</v>
+      </c>
+      <c r="D6">
+        <v>1121.1616899999999</v>
+      </c>
+      <c r="E6">
+        <v>31.3671875</v>
+      </c>
+      <c r="F6">
+        <v>161.16015625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>419.92303991300003</v>
-      </c>
-      <c r="D6">
-        <v>2047.0632238400001</v>
-      </c>
-      <c r="E6">
-        <v>25.2890625</v>
-      </c>
-      <c r="F6">
-        <v>170.0859375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>3.3783912658699999E-4</v>
-      </c>
-      <c r="D8">
-        <v>3.3783912658699999E-4</v>
-      </c>
-      <c r="E8">
-        <v>17.69921875</v>
-      </c>
-      <c r="F8">
-        <v>162.515625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>1.50661015511</v>
-      </c>
-      <c r="D9">
-        <v>1.5069479942299999</v>
-      </c>
-      <c r="E9">
-        <v>17.7109375</v>
-      </c>
-      <c r="F9">
-        <v>162.515625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2.4580955505399999E-4</v>
-      </c>
-      <c r="D10">
-        <v>1.5071938037899999</v>
-      </c>
-      <c r="E10">
-        <v>17.7109375</v>
-      </c>
-      <c r="F10">
-        <v>162.515625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1226.74723887</v>
-      </c>
-      <c r="D11">
-        <v>1228.25418687</v>
-      </c>
-      <c r="E11">
-        <v>63.26171875</v>
-      </c>
-      <c r="F11">
-        <v>698.7578125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>5.6375949382800004</v>
-      </c>
-      <c r="D12">
-        <v>1233.8917818100001</v>
-      </c>
-      <c r="E12">
-        <v>63.26171875</v>
-      </c>
-      <c r="F12">
-        <v>698.7421875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>1232.38519406</v>
-      </c>
-      <c r="D13">
-        <v>1233.89238787</v>
-      </c>
-      <c r="E13">
-        <v>63.26171875</v>
-      </c>
-      <c r="F13">
-        <v>698.7421875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>34.790035963100003</v>
-      </c>
-      <c r="D14">
-        <v>1268.6824238300001</v>
-      </c>
-      <c r="E14">
-        <v>63.28125</v>
-      </c>
-      <c r="F14">
-        <v>698.7421875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>426.78464293500002</v>
-      </c>
-      <c r="D15">
-        <v>1695.4670667600001</v>
-      </c>
-      <c r="E15">
-        <v>67.3359375</v>
-      </c>
-      <c r="F15">
-        <v>702.87890625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>2.64167785645E-4</v>
-      </c>
-      <c r="D17">
-        <v>2.64167785645E-4</v>
-      </c>
-      <c r="E17">
-        <v>17.69921875</v>
-      </c>
-      <c r="F17">
-        <v>162.515625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>1.0452837944</v>
-      </c>
-      <c r="D18">
-        <v>1.0455479621899999</v>
-      </c>
-      <c r="E18">
-        <v>17.7109375</v>
-      </c>
-      <c r="F18">
-        <v>162.515625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>2.3698806762699999E-4</v>
-      </c>
-      <c r="D19">
-        <v>1.0457849502600001</v>
-      </c>
-      <c r="E19">
-        <v>17.7109375</v>
-      </c>
-      <c r="F19">
-        <v>162.515625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>1018.69898915</v>
-      </c>
-      <c r="D20">
-        <v>1019.74453712</v>
-      </c>
-      <c r="E20">
-        <v>81.99609375</v>
-      </c>
-      <c r="F20">
-        <v>863.859375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>2.8908252716100002E-3</v>
-      </c>
-      <c r="D21">
-        <v>1019.74742794</v>
-      </c>
-      <c r="E21">
-        <v>82</v>
-      </c>
-      <c r="F21">
-        <v>863.859375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>6.3419342041000002E-4</v>
-      </c>
-      <c r="D22">
-        <v>1019.74806213</v>
-      </c>
-      <c r="E22">
-        <v>82</v>
-      </c>
-      <c r="F22">
-        <v>863.859375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>1018.70281005</v>
-      </c>
-      <c r="D23">
-        <v>1019.748595</v>
-      </c>
-      <c r="E23">
-        <v>82</v>
-      </c>
-      <c r="F23">
-        <v>863.859375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>35.115200996399999</v>
-      </c>
-      <c r="D24">
-        <v>1054.8637960000001</v>
-      </c>
-      <c r="E24">
-        <v>82.01953125</v>
-      </c>
-      <c r="F24">
-        <v>863.859375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>433.80786013599999</v>
-      </c>
-      <c r="D25">
-        <v>1488.67165613</v>
-      </c>
-      <c r="E25">
-        <v>86.07421875</v>
-      </c>
-      <c r="F25">
-        <v>867.99609375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>2.45094299316E-4</v>
-      </c>
-      <c r="D27">
-        <v>2.45094299316E-4</v>
-      </c>
-      <c r="E27">
-        <v>17.69921875</v>
-      </c>
-      <c r="F27">
-        <v>162.515625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>1.12865185738</v>
-      </c>
-      <c r="D28">
-        <v>1.12889695168</v>
-      </c>
-      <c r="E28">
-        <v>17.7109375</v>
-      </c>
-      <c r="F28">
-        <v>162.515625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>2.2912025451700001E-4</v>
-      </c>
-      <c r="D29">
-        <v>1.12912607193</v>
-      </c>
-      <c r="E29">
-        <v>17.7109375</v>
-      </c>
-      <c r="F29">
-        <v>162.515625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>905.21143603300004</v>
-      </c>
-      <c r="D30">
-        <v>906.34033298500003</v>
-      </c>
-      <c r="E30">
-        <v>109.5234375</v>
-      </c>
-      <c r="F30">
-        <v>1037.8984375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>1.0311379432700001</v>
-      </c>
-      <c r="D31">
-        <v>907.37147092800001</v>
-      </c>
-      <c r="E31">
-        <v>101.14453125</v>
-      </c>
-      <c r="F31">
-        <v>1029.38671875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32">
-        <v>1.27015995979</v>
-      </c>
-      <c r="D32">
-        <v>908.64163088800001</v>
-      </c>
-      <c r="E32">
-        <v>101.11328125</v>
-      </c>
-      <c r="F32">
-        <v>1029.35546875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>8.33988189697E-4</v>
-      </c>
-      <c r="D33">
-        <v>908.64246487599996</v>
-      </c>
-      <c r="E33">
-        <v>101.11328125</v>
-      </c>
-      <c r="F33">
-        <v>1029.35546875</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34">
-        <v>907.51404881500002</v>
-      </c>
-      <c r="D34">
-        <v>908.64317488699999</v>
-      </c>
-      <c r="E34">
-        <v>101.11328125</v>
-      </c>
-      <c r="F34">
-        <v>1029.35546875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35">
-        <v>36.4064772129</v>
-      </c>
-      <c r="D35">
-        <v>945.0496521</v>
-      </c>
-      <c r="E35">
-        <v>101.11328125</v>
-      </c>
-      <c r="F35">
-        <v>1029.35546875</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>459.58671999000001</v>
-      </c>
-      <c r="D36">
-        <v>1404.6363720899999</v>
-      </c>
-      <c r="E36">
-        <v>105.1953125</v>
-      </c>
-      <c r="F36">
-        <v>1033.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>2.6702880859400002E-4</v>
-      </c>
-      <c r="D38">
-        <v>2.6702880859400002E-4</v>
-      </c>
-      <c r="E38">
-        <v>17.69921875</v>
-      </c>
-      <c r="F38">
-        <v>162.515625</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>1.1677460670499999</v>
-      </c>
-      <c r="D39">
-        <v>1.1680130958599999</v>
-      </c>
-      <c r="E39">
-        <v>17.7109375</v>
-      </c>
-      <c r="F39">
-        <v>162.515625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>2.23875045776E-4</v>
-      </c>
-      <c r="D40">
-        <v>1.1682369709</v>
-      </c>
-      <c r="E40">
-        <v>17.7109375</v>
-      </c>
-      <c r="F40">
-        <v>162.515625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41">
-        <v>831.30552005799996</v>
-      </c>
-      <c r="D41">
-        <v>832.47353315400005</v>
-      </c>
-      <c r="E41">
-        <v>121.390625</v>
-      </c>
-      <c r="F41">
-        <v>1196.14453125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42">
-        <v>1.0838508606E-3</v>
-      </c>
-      <c r="D42">
-        <v>832.47461700400004</v>
-      </c>
-      <c r="E42">
-        <v>121.40625</v>
-      </c>
-      <c r="F42">
-        <v>1196.14453125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43">
-        <v>0.38835501670799999</v>
-      </c>
-      <c r="D43">
-        <v>832.86297202100002</v>
-      </c>
-      <c r="E43">
-        <v>121.40625</v>
-      </c>
-      <c r="F43">
-        <v>1196.14453125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44">
-        <v>5.5098533630399999E-4</v>
-      </c>
-      <c r="D44">
-        <v>832.86352300600004</v>
-      </c>
-      <c r="E44">
-        <v>121.40625</v>
-      </c>
-      <c r="F44">
-        <v>1196.14453125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45">
-        <v>4.3702125549300002E-4</v>
-      </c>
-      <c r="D45">
-        <v>832.86396002799995</v>
-      </c>
-      <c r="E45">
-        <v>121.40625</v>
-      </c>
-      <c r="F45">
-        <v>1196.14453125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46">
-        <v>831.69616913799996</v>
-      </c>
-      <c r="D46">
-        <v>832.86440610900002</v>
-      </c>
-      <c r="E46">
-        <v>121.40625</v>
-      </c>
-      <c r="F46">
-        <v>1196.14453125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>35.2652778625</v>
-      </c>
-      <c r="D47">
-        <v>868.12968397099996</v>
-      </c>
-      <c r="E47">
-        <v>121.42578125</v>
-      </c>
-      <c r="F47">
-        <v>1196.14453125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>443.77993512199998</v>
-      </c>
-      <c r="D48">
-        <v>1311.90961909</v>
-      </c>
-      <c r="E48">
-        <v>125.48828125</v>
-      </c>
-      <c r="F48">
-        <v>1200.2890625</v>
+      <c r="C7">
+        <v>4.2128562927200002E-3</v>
+      </c>
+      <c r="D7">
+        <v>1121.1659028500001</v>
+      </c>
+      <c r="E7">
+        <v>31.3671875</v>
+      </c>
+      <c r="F7">
+        <v>161.16015625</v>
       </c>
     </row>
   </sheetData>

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EB8B3F-498A-3048-BEC0-60E2F9373952}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="465" windowWidth="28620" windowHeight="16320"/>
+    <workbookView xWindow="-33540" yWindow="460" windowWidth="28620" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="j.sinuosa-info" sheetId="4" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
   <si>
     <t>Num procs</t>
   </si>
@@ -170,12 +176,21 @@
   </si>
   <si>
     <t>Overlap between l_mismatch = 0 and all reads match reference</t>
+  </si>
+  <si>
+    <t>ANGSD input</t>
+  </si>
+  <si>
+    <t>pileup input no mq</t>
+  </si>
+  <si>
+    <t>pileup input with mq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,9 +315,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,6 +367,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,16 +559,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -689,115 +738,178 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>4.6949386596700001E-3</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>4.6949386596700001E-3</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>13.04296875</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>142.9765625</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.72948908805799995</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0.73418402671799998</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>31.1171875</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>161.02734375</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>862.50720691699996</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>863.24139094400005</v>
-      </c>
-      <c r="E4">
-        <v>31.36328125</v>
-      </c>
-      <c r="F4">
-        <v>161.16015625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5">
-        <v>1.8799304962199999E-3</v>
-      </c>
-      <c r="D5">
-        <v>863.24327087400002</v>
       </c>
       <c r="E5">
         <v>31.36328125</v>
@@ -805,45 +917,289 @@
       <c r="F5">
         <v>161.16015625</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>257.91841912299998</v>
+        <v>1.8799304962199999E-3</v>
       </c>
       <c r="D6">
-        <v>1121.1616899999999</v>
+        <v>863.24327087400002</v>
       </c>
       <c r="E6">
-        <v>31.3671875</v>
+        <v>31.36328125</v>
       </c>
       <c r="F6">
         <v>161.16015625</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>4.2128562927200002E-3</v>
+        <v>257.91841912299998</v>
       </c>
       <c r="D7">
-        <v>1121.1659028500001</v>
+        <v>1121.1616899999999</v>
       </c>
       <c r="E7">
         <v>31.3671875</v>
       </c>
       <c r="F7">
         <v>161.16015625</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>4.2128562927200002E-3</v>
+      </c>
+      <c r="D8">
+        <v>1121.1659028500001</v>
+      </c>
+      <c r="E8">
+        <v>31.3671875</v>
+      </c>
+      <c r="F8">
+        <v>161.16015625</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -853,21 +1209,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1756,21 +2112,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregg/bin/referee/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EB8B3F-498A-3048-BEC0-60E2F9373952}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="460" windowWidth="28620" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33540" yWindow="465" windowWidth="28620" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="j.sinuosa-info" sheetId="4" r:id="rId1"/>
@@ -190,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,26 +309,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,23 +344,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,16 +519,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -639,7 +599,7 @@
         <v>55567</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -647,7 +607,7 @@
         <v>50283993</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -655,7 +615,7 @@
         <v>48791504</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -663,7 +623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -671,7 +631,7 @@
         <v>1487227</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -679,7 +639,7 @@
         <v>1701604</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -687,47 +647,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -738,33 +698,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -859,6 +819,18 @@
       <c r="I3" t="s">
         <v>6</v>
       </c>
+      <c r="J3">
+        <v>3.7529468536399999E-3</v>
+      </c>
+      <c r="K3">
+        <v>3.7529468536399999E-3</v>
+      </c>
+      <c r="L3">
+        <v>13.05078125</v>
+      </c>
+      <c r="M3">
+        <v>143.00390625</v>
+      </c>
       <c r="O3">
         <v>1</v>
       </c>
@@ -891,6 +863,18 @@
       <c r="I4" t="s">
         <v>7</v>
       </c>
+      <c r="J4">
+        <v>0.712610006332</v>
+      </c>
+      <c r="K4">
+        <v>0.71636295318599996</v>
+      </c>
+      <c r="L4">
+        <v>31.1171875</v>
+      </c>
+      <c r="M4">
+        <v>161.03125</v>
+      </c>
       <c r="O4">
         <v>1</v>
       </c>
@@ -923,6 +907,18 @@
       <c r="I5" t="s">
         <v>46</v>
       </c>
+      <c r="J5">
+        <v>9515.2610449799995</v>
+      </c>
+      <c r="K5">
+        <v>9515.9774079300005</v>
+      </c>
+      <c r="L5">
+        <v>32.08984375</v>
+      </c>
+      <c r="M5">
+        <v>161.96875</v>
+      </c>
       <c r="O5">
         <v>1</v>
       </c>
@@ -955,6 +951,18 @@
       <c r="I6" t="s">
         <v>47</v>
       </c>
+      <c r="J6">
+        <v>2.29740142822E-2</v>
+      </c>
+      <c r="K6">
+        <v>9516.0003819499998</v>
+      </c>
+      <c r="L6">
+        <v>32.08984375</v>
+      </c>
+      <c r="M6">
+        <v>161.96875</v>
+      </c>
       <c r="O6">
         <v>1</v>
       </c>
@@ -987,6 +995,18 @@
       <c r="I7" t="s">
         <v>48</v>
       </c>
+      <c r="J7">
+        <v>312.88279295000001</v>
+      </c>
+      <c r="K7">
+        <v>9828.8831749000001</v>
+      </c>
+      <c r="L7">
+        <v>32.09375</v>
+      </c>
+      <c r="M7">
+        <v>161.96875</v>
+      </c>
       <c r="O7">
         <v>1</v>
       </c>
@@ -1019,6 +1039,18 @@
       <c r="I8" t="s">
         <v>10</v>
       </c>
+      <c r="J8">
+        <v>1.6808986663799999E-2</v>
+      </c>
+      <c r="K8">
+        <v>9828.8999838799991</v>
+      </c>
+      <c r="L8">
+        <v>32.09375</v>
+      </c>
+      <c r="M8">
+        <v>161.96875</v>
+      </c>
       <c r="O8">
         <v>1</v>
       </c>
@@ -1026,7 +1058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1102,7 +1134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1122,7 +1154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1142,7 +1174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1162,7 +1194,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1182,7 +1214,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1209,21 +1241,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1746,7 +1778,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1766,7 +1798,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1786,7 +1818,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1806,7 +1838,7 @@
         <v>1887.109375</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1826,7 +1858,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1846,7 +1878,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1866,7 +1898,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1886,7 +1918,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1906,7 +1938,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1926,7 +1958,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1946,7 +1978,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1966,7 +1998,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1986,7 +2018,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2006,7 +2038,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2026,7 +2058,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2046,7 +2078,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2066,7 +2098,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2086,7 +2118,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2112,21 +2144,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2709,7 +2741,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2729,7 +2761,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2749,7 +2781,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2769,7 +2801,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2789,7 +2821,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2809,7 +2841,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2829,7 +2861,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2849,7 +2881,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2869,7 +2901,7 @@
         <v>2266.98046875</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2889,7 +2921,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2909,7 +2941,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2929,7 +2961,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2949,7 +2981,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2969,7 +3001,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2989,7 +3021,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="465" windowWidth="28620" windowHeight="16320" activeTab="1"/>
+    <workbookView xWindow="-33540" yWindow="468" windowWidth="28620" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="j.sinuosa-info" sheetId="4" r:id="rId1"/>
@@ -276,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +316,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,13 +531,13 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -540,7 +545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -548,7 +553,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -556,7 +561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -564,7 +569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -572,7 +577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -583,7 +588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -591,7 +596,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -599,7 +604,7 @@
         <v>55567</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -607,7 +612,7 @@
         <v>50283993</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -615,7 +620,7 @@
         <v>48791504</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -623,7 +628,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -631,7 +636,7 @@
         <v>1487227</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -639,7 +644,7 @@
         <v>1701604</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -647,47 +652,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -701,33 +706,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -738,7 +743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -794,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -837,8 +842,20 @@
       <c r="P3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>3.82018089294E-3</v>
+      </c>
+      <c r="R3">
+        <v>3.82018089294E-3</v>
+      </c>
+      <c r="S3">
+        <v>13.0546875</v>
+      </c>
+      <c r="T3">
+        <v>142.984375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -881,8 +898,20 @@
       <c r="P4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>0.55635499954199996</v>
+      </c>
+      <c r="R4">
+        <v>0.56017518043500003</v>
+      </c>
+      <c r="S4">
+        <v>31.12109375</v>
+      </c>
+      <c r="T4">
+        <v>161.03125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -925,8 +954,20 @@
       <c r="P5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>8640.96923685</v>
+      </c>
+      <c r="R5">
+        <v>8641.5294120300005</v>
+      </c>
+      <c r="S5">
+        <v>31.90234375</v>
+      </c>
+      <c r="T5">
+        <v>161.7265625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -969,8 +1010,20 @@
       <c r="P6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>3.0918121337899999E-2</v>
+      </c>
+      <c r="R6">
+        <v>8641.5603301499996</v>
+      </c>
+      <c r="S6">
+        <v>31.90234375</v>
+      </c>
+      <c r="T6">
+        <v>161.7265625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1013,8 +1066,20 @@
       <c r="P7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>311.47061991700002</v>
+      </c>
+      <c r="R7">
+        <v>8953.0309500700005</v>
+      </c>
+      <c r="S7">
+        <v>31.90234375</v>
+      </c>
+      <c r="T7">
+        <v>161.7265625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1057,8 +1122,20 @@
       <c r="P8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>3.0441284179699999E-3</v>
+      </c>
+      <c r="R8">
+        <v>8953.0339941999991</v>
+      </c>
+      <c r="S8">
+        <v>31.90625</v>
+      </c>
+      <c r="T8">
+        <v>161.7265625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1134,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1154,7 +1231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1174,7 +1251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1194,7 +1271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1214,7 +1291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1248,17 +1325,17 @@
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1298,7 +1375,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1318,7 +1395,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1338,7 +1415,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1358,7 +1435,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1378,7 +1455,7 @@
         <v>257.2734375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1398,7 +1475,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1418,7 +1495,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1438,7 +1515,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1458,7 +1535,7 @@
         <v>1176.6484375</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1478,7 +1555,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1498,7 +1575,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1518,7 +1595,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1538,7 +1615,7 @@
         <v>1176.6171875</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1558,7 +1635,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1578,7 +1655,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1598,7 +1675,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1618,7 +1695,7 @@
         <v>1531.890625</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1638,7 +1715,7 @@
         <v>1531.875</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1658,7 +1735,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1678,7 +1755,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1698,7 +1775,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1718,7 +1795,7 @@
         <v>1531.859375</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1738,7 +1815,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1758,7 +1835,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1778,7 +1855,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1798,7 +1875,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1818,7 +1895,7 @@
         <v>1887.125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1838,7 +1915,7 @@
         <v>1887.109375</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1858,7 +1935,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1878,7 +1955,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1898,7 +1975,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1918,7 +1995,7 @@
         <v>1887.09375</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1938,7 +2015,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1958,7 +2035,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1978,7 +2055,7 @@
         <v>257.33203125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1998,7 +2075,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2018,7 +2095,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2038,7 +2115,7 @@
         <v>2242.3515625</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2058,7 +2135,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2078,7 +2155,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2098,7 +2175,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2118,7 +2195,7 @@
         <v>2242.3359375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2151,17 +2228,17 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +2258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2201,7 +2278,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2221,7 +2298,7 @@
         <v>262.09375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2241,7 +2318,7 @@
         <v>262.2265625</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2261,7 +2338,7 @@
         <v>262.2265625</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2281,7 +2358,7 @@
         <v>262.2265625</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2301,7 +2378,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2321,7 +2398,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2341,7 +2418,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2361,7 +2438,7 @@
         <v>1185.3046875</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2381,7 +2458,7 @@
         <v>1185.3046875</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2401,7 +2478,7 @@
         <v>1185.3046875</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2421,7 +2498,7 @@
         <v>1185.3046875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2441,7 +2518,7 @@
         <v>1185.3046875</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2461,7 +2538,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2481,7 +2558,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2501,7 +2578,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2521,7 +2598,7 @@
         <v>1545.875</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2541,7 +2618,7 @@
         <v>1545.84375</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2561,7 +2638,7 @@
         <v>1545.84375</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2581,7 +2658,7 @@
         <v>1545.84375</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2601,7 +2678,7 @@
         <v>1545.84375</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2621,7 +2698,7 @@
         <v>1545.84375</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2641,7 +2718,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2661,7 +2738,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2681,7 +2758,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2701,7 +2778,7 @@
         <v>1906.421875</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2721,7 +2798,7 @@
         <v>1906.421875</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2741,7 +2818,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2761,7 +2838,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2781,7 +2858,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2801,7 +2878,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2821,7 +2898,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2841,7 +2918,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2861,7 +2938,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2881,7 +2958,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2901,7 +2978,7 @@
         <v>2266.98046875</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2921,7 +2998,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2941,7 +3018,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2961,7 +3038,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2981,7 +3058,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3001,7 +3078,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -3021,7 +3098,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="54">
   <si>
     <t>Num procs</t>
   </si>
@@ -704,10 +704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,6 +1210,18 @@
       <c r="P11" t="s">
         <v>6</v>
       </c>
+      <c r="Q11">
+        <v>4.81796264648E-3</v>
+      </c>
+      <c r="R11">
+        <v>4.81796264648E-3</v>
+      </c>
+      <c r="S11">
+        <v>13.05859375</v>
+      </c>
+      <c r="T11">
+        <v>143.078125</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1230,25 +1242,37 @@
       <c r="P12" t="s">
         <v>7</v>
       </c>
+      <c r="Q12">
+        <v>0.89913320541399999</v>
+      </c>
+      <c r="R12">
+        <v>0.90395116805999998</v>
+      </c>
+      <c r="S12">
+        <v>31.11328125</v>
+      </c>
+      <c r="T12">
+        <v>161.04296875</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>0.89995598792999998</v>
+      </c>
+      <c r="R13">
+        <v>0.90477395057700005</v>
+      </c>
+      <c r="S13">
+        <v>31.1171875</v>
+      </c>
+      <c r="T13">
+        <v>161.04296875</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -1256,19 +1280,31 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14">
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O14">
         <v>4</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <v>1.12795829773E-3</v>
+      </c>
+      <c r="R14">
+        <v>3107.0806500899998</v>
+      </c>
+      <c r="S14">
+        <v>240.4921875</v>
+      </c>
+      <c r="T14">
+        <v>1102.6015625</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -1276,19 +1312,31 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15">
         <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="Q15">
+        <v>19.070683956100002</v>
+      </c>
+      <c r="R15">
+        <v>3126.1513340500001</v>
+      </c>
+      <c r="S15">
+        <v>240.5078125</v>
+      </c>
+      <c r="T15">
+        <v>1102.6015625</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1296,19 +1344,63 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16">
+        <v>245.51206803299999</v>
+      </c>
+      <c r="R16">
+        <v>3371.6634020800002</v>
+      </c>
+      <c r="S16">
+        <v>240.53515625</v>
+      </c>
+      <c r="T16">
+        <v>1102.6015625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
         <v>10</v>
       </c>
-      <c r="O16">
-        <v>4</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17" t="s">
         <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>3.2620429992699998E-3</v>
+      </c>
+      <c r="R17">
+        <v>3371.66666412</v>
+      </c>
+      <c r="S17">
+        <v>240.53515625</v>
+      </c>
+      <c r="T17">
+        <v>1102.6015625</v>
       </c>
     </row>
   </sheetData>

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="54">
   <si>
     <t>Num procs</t>
   </si>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,6 +1256,18 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
       <c r="O13">
         <v>4</v>
       </c>
@@ -1280,13 +1292,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="O14">
         <v>4</v>

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="468" windowWidth="28620" windowHeight="16320" activeTab="1"/>
+    <workbookView xWindow="-33540" yWindow="465" windowWidth="28620" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="j.sinuosa-info" sheetId="4" r:id="rId1"/>
@@ -281,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,7 +311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,9 +526,9 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -707,29 +702,29 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -1204,6 +1199,18 @@
       <c r="I11" t="s">
         <v>6</v>
       </c>
+      <c r="J11">
+        <v>2.4149417877200002E-3</v>
+      </c>
+      <c r="K11">
+        <v>2.4149417877200002E-3</v>
+      </c>
+      <c r="L11">
+        <v>12.9921875</v>
+      </c>
+      <c r="M11">
+        <v>142.96484375</v>
+      </c>
       <c r="O11">
         <v>4</v>
       </c>
@@ -1236,6 +1243,18 @@
       <c r="I12" t="s">
         <v>7</v>
       </c>
+      <c r="J12">
+        <v>0.48018693924</v>
+      </c>
+      <c r="K12">
+        <v>0.48260188102700002</v>
+      </c>
+      <c r="L12">
+        <v>31.12109375</v>
+      </c>
+      <c r="M12">
+        <v>161.03125</v>
+      </c>
       <c r="O12">
         <v>4</v>
       </c>
@@ -1268,6 +1287,18 @@
       <c r="I13" t="s">
         <v>12</v>
       </c>
+      <c r="J13">
+        <v>0.48099708557100002</v>
+      </c>
+      <c r="K13">
+        <v>0.48341202735900002</v>
+      </c>
+      <c r="L13">
+        <v>31.12109375</v>
+      </c>
+      <c r="M13">
+        <v>161.03125</v>
+      </c>
       <c r="O13">
         <v>4</v>
       </c>
@@ -1300,6 +1331,18 @@
       <c r="I14" t="s">
         <v>13</v>
       </c>
+      <c r="J14">
+        <v>1.68704986572E-3</v>
+      </c>
+      <c r="K14">
+        <v>3016.3362939399999</v>
+      </c>
+      <c r="L14">
+        <v>241.16015625</v>
+      </c>
+      <c r="M14">
+        <v>1103.29296875</v>
+      </c>
       <c r="O14">
         <v>4</v>
       </c>
@@ -1332,6 +1375,18 @@
       <c r="I15" t="s">
         <v>47</v>
       </c>
+      <c r="J15">
+        <v>18.4668970108</v>
+      </c>
+      <c r="K15">
+        <v>3034.80319095</v>
+      </c>
+      <c r="L15">
+        <v>241.17578125</v>
+      </c>
+      <c r="M15">
+        <v>1103.29296875</v>
+      </c>
       <c r="O15">
         <v>4</v>
       </c>
@@ -1364,6 +1419,18 @@
       <c r="I16" t="s">
         <v>48</v>
       </c>
+      <c r="J16">
+        <v>237.360594034</v>
+      </c>
+      <c r="K16">
+        <v>3272.1637849799999</v>
+      </c>
+      <c r="L16">
+        <v>243.4140625</v>
+      </c>
+      <c r="M16">
+        <v>1103.29296875</v>
+      </c>
       <c r="O16">
         <v>4</v>
       </c>
@@ -1395,6 +1462,18 @@
       </c>
       <c r="I17" t="s">
         <v>10</v>
+      </c>
+      <c r="J17">
+        <v>2.8939247131299999E-3</v>
+      </c>
+      <c r="K17">
+        <v>3272.16667891</v>
+      </c>
+      <c r="L17">
+        <v>243.4140625</v>
+      </c>
+      <c r="M17">
+        <v>1103.29296875</v>
       </c>
       <c r="O17">
         <v>4</v>
@@ -1429,14 +1508,14 @@
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2332,14 +2411,14 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,6 +1193,18 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
+      <c r="C11">
+        <v>8.3379745483399999E-3</v>
+      </c>
+      <c r="D11">
+        <v>8.3379745483399999E-3</v>
+      </c>
+      <c r="E11">
+        <v>12.99609375</v>
+      </c>
+      <c r="F11">
+        <v>143.03515625</v>
+      </c>
       <c r="H11">
         <v>4</v>
       </c>
@@ -1237,6 +1249,18 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="C12">
+        <v>0.76420497894299999</v>
+      </c>
+      <c r="D12">
+        <v>0.772542953491</v>
+      </c>
+      <c r="E12">
+        <v>31.125</v>
+      </c>
+      <c r="F12">
+        <v>161.03125</v>
+      </c>
       <c r="H12">
         <v>4</v>
       </c>
@@ -1281,6 +1305,18 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
+      <c r="C13">
+        <v>0.76520609855699995</v>
+      </c>
+      <c r="D13">
+        <v>0.77354407310499995</v>
+      </c>
+      <c r="E13">
+        <v>31.125</v>
+      </c>
+      <c r="F13">
+        <v>161.03125</v>
+      </c>
       <c r="H13">
         <v>4</v>
       </c>
@@ -1325,6 +1361,18 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
+      <c r="C14">
+        <v>1.34706497192E-3</v>
+      </c>
+      <c r="D14">
+        <v>443.22435212099998</v>
+      </c>
+      <c r="E14">
+        <v>239.01953125</v>
+      </c>
+      <c r="F14">
+        <v>1101.265625</v>
+      </c>
       <c r="H14">
         <v>4</v>
       </c>
@@ -1369,6 +1417,18 @@
       <c r="B15" t="s">
         <v>47</v>
       </c>
+      <c r="C15">
+        <v>36.746198892599999</v>
+      </c>
+      <c r="D15">
+        <v>479.97055101400002</v>
+      </c>
+      <c r="E15">
+        <v>239.03515625</v>
+      </c>
+      <c r="F15">
+        <v>1101.265625</v>
+      </c>
       <c r="H15">
         <v>4</v>
       </c>
@@ -1413,6 +1473,18 @@
       <c r="B16" t="s">
         <v>48</v>
       </c>
+      <c r="C16">
+        <v>254.481251955</v>
+      </c>
+      <c r="D16">
+        <v>734.45180296900003</v>
+      </c>
+      <c r="E16">
+        <v>239.046875</v>
+      </c>
+      <c r="F16">
+        <v>1101.265625</v>
+      </c>
       <c r="H16">
         <v>4</v>
       </c>
@@ -1456,6 +1528,18 @@
       </c>
       <c r="B17" t="s">
         <v>10</v>
+      </c>
+      <c r="C17">
+        <v>3.3550262451199999E-3</v>
+      </c>
+      <c r="D17">
+        <v>734.45515799500004</v>
+      </c>
+      <c r="E17">
+        <v>239.046875</v>
+      </c>
+      <c r="F17">
+        <v>1101.265625</v>
       </c>
       <c r="H17">
         <v>4</v>

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="465" windowWidth="28620" windowHeight="16320" activeTab="1"/>
+    <workbookView xWindow="-33540" yWindow="468" windowWidth="28620" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="j.sinuosa-info" sheetId="4" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="54">
   <si>
     <t>Num procs</t>
   </si>
@@ -276,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +316,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,9 +531,9 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -699,35 +704,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -738,7 +743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -794,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -850,7 +855,7 @@
         <v>142.984375</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -906,7 +911,7 @@
         <v>161.03125</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -962,7 +967,7 @@
         <v>161.7265625</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>161.7265625</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1074,7 +1079,7 @@
         <v>161.7265625</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1130,7 +1135,7 @@
         <v>161.7265625</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1242,7 +1247,7 @@
         <v>143.078125</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1298,7 +1303,7 @@
         <v>161.04296875</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1354,7 +1359,7 @@
         <v>161.04296875</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>1102.6015625</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1466,7 +1471,7 @@
         <v>1102.6015625</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1522,7 +1527,7 @@
         <v>1102.6015625</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1576,6 +1581,454 @@
       </c>
       <c r="T17">
         <v>1102.6015625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>2.6440620422400001E-3</v>
+      </c>
+      <c r="D20">
+        <v>2.6440620422400001E-3</v>
+      </c>
+      <c r="E20">
+        <v>12.9921875</v>
+      </c>
+      <c r="F20">
+        <v>143.03515625</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>7.8430175781200005E-3</v>
+      </c>
+      <c r="K20">
+        <v>7.8430175781200005E-3</v>
+      </c>
+      <c r="L20">
+        <v>12.99609375</v>
+      </c>
+      <c r="M20">
+        <v>143.046875</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <v>2.8359889984099999E-3</v>
+      </c>
+      <c r="R20">
+        <v>2.8359889984099999E-3</v>
+      </c>
+      <c r="S20">
+        <v>13</v>
+      </c>
+      <c r="T20">
+        <v>143.046875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0.86020994186400002</v>
+      </c>
+      <c r="D21">
+        <v>0.86285400390599998</v>
+      </c>
+      <c r="E21">
+        <v>31.12109375</v>
+      </c>
+      <c r="F21">
+        <v>161.03125</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>0.49518895149199998</v>
+      </c>
+      <c r="K21">
+        <v>0.50303196907000003</v>
+      </c>
+      <c r="L21">
+        <v>31.12109375</v>
+      </c>
+      <c r="M21">
+        <v>161.0390625</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>0.74214220047000001</v>
+      </c>
+      <c r="R21">
+        <v>0.74497818946799998</v>
+      </c>
+      <c r="S21">
+        <v>31.125</v>
+      </c>
+      <c r="T21">
+        <v>161.0390625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>0.86113810539199998</v>
+      </c>
+      <c r="D22">
+        <v>0.86378216743500003</v>
+      </c>
+      <c r="E22">
+        <v>31.12109375</v>
+      </c>
+      <c r="F22">
+        <v>161.03125</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>0.49603295326199998</v>
+      </c>
+      <c r="K22">
+        <v>0.50387597084000002</v>
+      </c>
+      <c r="L22">
+        <v>31.12109375</v>
+      </c>
+      <c r="M22">
+        <v>161.0390625</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22">
+        <v>0.74326419830299995</v>
+      </c>
+      <c r="R22">
+        <v>0.74610018730200001</v>
+      </c>
+      <c r="S22">
+        <v>31.125</v>
+      </c>
+      <c r="T22">
+        <v>161.0390625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>1.3940334320100001E-3</v>
+      </c>
+      <c r="D23">
+        <v>407.21117401100003</v>
+      </c>
+      <c r="E23">
+        <v>439.80859375</v>
+      </c>
+      <c r="F23">
+        <v>1837.078125</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>1.6298294067399999E-3</v>
+      </c>
+      <c r="K23">
+        <v>1990.8568429899999</v>
+      </c>
+      <c r="L23">
+        <v>445.12890625</v>
+      </c>
+      <c r="M23">
+        <v>1839.82421875</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23">
+        <v>2.3519992828400001E-3</v>
+      </c>
+      <c r="R23">
+        <v>2009.17144704</v>
+      </c>
+      <c r="S23">
+        <v>444.0625</v>
+      </c>
+      <c r="T23">
+        <v>1838.81640625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>19.5485880375</v>
+      </c>
+      <c r="D24">
+        <v>426.75976204900002</v>
+      </c>
+      <c r="E24">
+        <v>439.82421875</v>
+      </c>
+      <c r="F24">
+        <v>1837.078125</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24">
+        <v>19.4055550098</v>
+      </c>
+      <c r="K24">
+        <v>2010.2623980000001</v>
+      </c>
+      <c r="L24">
+        <v>445.14453125</v>
+      </c>
+      <c r="M24">
+        <v>1839.82421875</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24">
+        <v>19.793821096399999</v>
+      </c>
+      <c r="R24">
+        <v>2028.96526814</v>
+      </c>
+      <c r="S24">
+        <v>444.078125</v>
+      </c>
+      <c r="T24">
+        <v>1838.81640625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>231.062651157</v>
+      </c>
+      <c r="D25">
+        <v>657.82241320599996</v>
+      </c>
+      <c r="E25">
+        <v>439.83984375</v>
+      </c>
+      <c r="F25">
+        <v>1837.078125</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25">
+        <v>237.73836612700001</v>
+      </c>
+      <c r="K25">
+        <v>2248.0007641299999</v>
+      </c>
+      <c r="L25">
+        <v>445.171875</v>
+      </c>
+      <c r="M25">
+        <v>1839.82421875</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25">
+        <v>241.98763489699999</v>
+      </c>
+      <c r="R25">
+        <v>2270.95290303</v>
+      </c>
+      <c r="S25">
+        <v>444.10546875</v>
+      </c>
+      <c r="T25">
+        <v>1838.81640625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>3.0097961425799998E-3</v>
+      </c>
+      <c r="D26">
+        <v>657.82542300199998</v>
+      </c>
+      <c r="E26">
+        <v>439.83984375</v>
+      </c>
+      <c r="F26">
+        <v>1837.078125</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>3.0329227447499999E-3</v>
+      </c>
+      <c r="K26">
+        <v>2248.0037970499998</v>
+      </c>
+      <c r="L26">
+        <v>445.171875</v>
+      </c>
+      <c r="M26">
+        <v>1839.82421875</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26">
+        <v>2.7699470519999998E-3</v>
+      </c>
+      <c r="R26">
+        <v>2270.9556729800001</v>
+      </c>
+      <c r="S26">
+        <v>444.10546875</v>
+      </c>
+      <c r="T26">
+        <v>1838.81640625</v>
       </c>
     </row>
   </sheetData>
@@ -1592,14 +2045,14 @@
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2495,14 +2948,14 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="54">
   <si>
     <t>Num procs</t>
   </si>
@@ -704,10 +704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1659,7 +1659,7 @@
         <v>143.03515625</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
@@ -1677,7 +1677,7 @@
         <v>143.046875</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P20" t="s">
         <v>6</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1715,7 +1715,7 @@
         <v>161.03125</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
         <v>7</v>
@@ -1733,7 +1733,7 @@
         <v>161.0390625</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P21" t="s">
         <v>7</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>161.03125</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -1789,7 +1789,7 @@
         <v>161.0390625</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P22" t="s">
         <v>12</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1827,7 +1827,7 @@
         <v>1837.078125</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         <v>1839.82421875</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P23" t="s">
         <v>13</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -1883,7 +1883,7 @@
         <v>1837.078125</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I24" t="s">
         <v>47</v>
@@ -1901,7 +1901,7 @@
         <v>1839.82421875</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P24" t="s">
         <v>47</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
@@ -1939,7 +1939,7 @@
         <v>1837.078125</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I25" t="s">
         <v>48</v>
@@ -1957,7 +1957,7 @@
         <v>1839.82421875</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P25" t="s">
         <v>48</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1995,7 +1995,7 @@
         <v>1837.078125</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -2013,7 +2013,7 @@
         <v>1839.82421875</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P26" t="s">
         <v>10</v>
@@ -2029,6 +2029,1042 @@
       </c>
       <c r="T26">
         <v>1838.81640625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>3.7040710449200002E-3</v>
+      </c>
+      <c r="D29">
+        <v>3.7040710449200002E-3</v>
+      </c>
+      <c r="E29">
+        <v>12.9921875</v>
+      </c>
+      <c r="F29">
+        <v>143.03515625</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>3.27396392822E-3</v>
+      </c>
+      <c r="K29">
+        <v>3.27396392822E-3</v>
+      </c>
+      <c r="L29">
+        <v>13</v>
+      </c>
+      <c r="M29">
+        <v>143.046875</v>
+      </c>
+      <c r="O29">
+        <v>12</v>
+      </c>
+      <c r="P29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>2.8250217437700001E-3</v>
+      </c>
+      <c r="R29">
+        <v>2.8250217437700001E-3</v>
+      </c>
+      <c r="S29">
+        <v>13</v>
+      </c>
+      <c r="T29">
+        <v>143.046875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.78417706489600003</v>
+      </c>
+      <c r="D30">
+        <v>0.78788113594099995</v>
+      </c>
+      <c r="E30">
+        <v>31.12109375</v>
+      </c>
+      <c r="F30">
+        <v>161.03125</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>0.51361393928499999</v>
+      </c>
+      <c r="K30">
+        <v>0.51688790321400002</v>
+      </c>
+      <c r="L30">
+        <v>31.125</v>
+      </c>
+      <c r="M30">
+        <v>161.0390625</v>
+      </c>
+      <c r="O30">
+        <v>12</v>
+      </c>
+      <c r="P30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30">
+        <v>0.53456282615700002</v>
+      </c>
+      <c r="R30">
+        <v>0.53738784790000005</v>
+      </c>
+      <c r="S30">
+        <v>31.125</v>
+      </c>
+      <c r="T30">
+        <v>161.0390625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>0.78510093689000005</v>
+      </c>
+      <c r="D31">
+        <v>0.78880500793499997</v>
+      </c>
+      <c r="E31">
+        <v>31.12109375</v>
+      </c>
+      <c r="F31">
+        <v>161.03125</v>
+      </c>
+      <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31">
+        <v>0.51461100578300001</v>
+      </c>
+      <c r="K31">
+        <v>0.51788496971099995</v>
+      </c>
+      <c r="L31">
+        <v>31.125</v>
+      </c>
+      <c r="M31">
+        <v>161.0390625</v>
+      </c>
+      <c r="O31">
+        <v>12</v>
+      </c>
+      <c r="P31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <v>0.53560090064999999</v>
+      </c>
+      <c r="R31">
+        <v>0.538425922394</v>
+      </c>
+      <c r="S31">
+        <v>31.125</v>
+      </c>
+      <c r="T31">
+        <v>161.0390625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>2.06708908081E-3</v>
+      </c>
+      <c r="D32">
+        <v>344.95745110500002</v>
+      </c>
+      <c r="E32">
+        <v>640.83203125</v>
+      </c>
+      <c r="F32">
+        <v>2572.90625</v>
+      </c>
+      <c r="H32">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32">
+        <v>2.6149749755899998E-3</v>
+      </c>
+      <c r="K32">
+        <v>1336.5816390499999</v>
+      </c>
+      <c r="L32">
+        <v>646.03515625</v>
+      </c>
+      <c r="M32">
+        <v>2576.49609375</v>
+      </c>
+      <c r="O32">
+        <v>12</v>
+      </c>
+      <c r="P32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q32">
+        <v>1.9938945770300001E-3</v>
+      </c>
+      <c r="R32">
+        <v>1340.3544509400001</v>
+      </c>
+      <c r="S32">
+        <v>644.890625</v>
+      </c>
+      <c r="T32">
+        <v>2574.671875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>21.072934866000001</v>
+      </c>
+      <c r="D33">
+        <v>366.03038597099999</v>
+      </c>
+      <c r="E33">
+        <v>640.83203125</v>
+      </c>
+      <c r="F33">
+        <v>2572.90625</v>
+      </c>
+      <c r="H33">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33">
+        <v>20.5104968548</v>
+      </c>
+      <c r="K33">
+        <v>1357.09213591</v>
+      </c>
+      <c r="L33">
+        <v>646.05859375</v>
+      </c>
+      <c r="M33">
+        <v>2576.49609375</v>
+      </c>
+      <c r="O33">
+        <v>12</v>
+      </c>
+      <c r="P33" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q33">
+        <v>34.206732034700003</v>
+      </c>
+      <c r="R33">
+        <v>1374.56118298</v>
+      </c>
+      <c r="S33">
+        <v>644.92578125</v>
+      </c>
+      <c r="T33">
+        <v>2574.671875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>231.09725308399999</v>
+      </c>
+      <c r="D34">
+        <v>597.12763905500003</v>
+      </c>
+      <c r="E34">
+        <v>644.08984375</v>
+      </c>
+      <c r="F34">
+        <v>2572.90625</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34">
+        <v>225.01068115199999</v>
+      </c>
+      <c r="K34">
+        <v>1582.10281706</v>
+      </c>
+      <c r="L34">
+        <v>646.1484375</v>
+      </c>
+      <c r="M34">
+        <v>2576.49609375</v>
+      </c>
+      <c r="O34">
+        <v>12</v>
+      </c>
+      <c r="P34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q34">
+        <v>221.228308916</v>
+      </c>
+      <c r="R34">
+        <v>1595.7894918899999</v>
+      </c>
+      <c r="S34">
+        <v>644.94921875</v>
+      </c>
+      <c r="T34">
+        <v>2574.671875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>3.43489646912E-3</v>
+      </c>
+      <c r="D35">
+        <v>597.13107395199995</v>
+      </c>
+      <c r="E35">
+        <v>644.08984375</v>
+      </c>
+      <c r="F35">
+        <v>2572.90625</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>3.1528472900400001E-3</v>
+      </c>
+      <c r="K35">
+        <v>1582.1059699100001</v>
+      </c>
+      <c r="L35">
+        <v>646.1484375</v>
+      </c>
+      <c r="M35">
+        <v>2576.49609375</v>
+      </c>
+      <c r="O35">
+        <v>12</v>
+      </c>
+      <c r="P35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <v>3.3390522003200001E-3</v>
+      </c>
+      <c r="R35">
+        <v>1595.7928309399999</v>
+      </c>
+      <c r="S35">
+        <v>644.94921875</v>
+      </c>
+      <c r="T35">
+        <v>2574.671875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L37" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" t="s">
+        <v>5</v>
+      </c>
+      <c r="O37" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>2</v>
+      </c>
+      <c r="R37" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38">
+        <v>16</v>
+      </c>
+      <c r="P38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39">
+        <v>16</v>
+      </c>
+      <c r="P39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="O40">
+        <v>16</v>
+      </c>
+      <c r="P40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41">
+        <v>16</v>
+      </c>
+      <c r="P41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42">
+        <v>16</v>
+      </c>
+      <c r="P42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O43">
+        <v>16</v>
+      </c>
+      <c r="P43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <v>16</v>
+      </c>
+      <c r="P44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>2</v>
+      </c>
+      <c r="R46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47">
+        <v>20</v>
+      </c>
+      <c r="P47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="O48">
+        <v>20</v>
+      </c>
+      <c r="P48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="O49">
+        <v>20</v>
+      </c>
+      <c r="P49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="O50">
+        <v>20</v>
+      </c>
+      <c r="P50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O51">
+        <v>20</v>
+      </c>
+      <c r="P51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>48</v>
+      </c>
+      <c r="O52">
+        <v>20</v>
+      </c>
+      <c r="P52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+      <c r="O53">
+        <v>20</v>
+      </c>
+      <c r="P53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>2</v>
+      </c>
+      <c r="K55" t="s">
+        <v>3</v>
+      </c>
+      <c r="L55" t="s">
+        <v>4</v>
+      </c>
+      <c r="M55" t="s">
+        <v>5</v>
+      </c>
+      <c r="O55" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>2</v>
+      </c>
+      <c r="R55" t="s">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>24</v>
+      </c>
+      <c r="I56" t="s">
+        <v>6</v>
+      </c>
+      <c r="O56">
+        <v>24</v>
+      </c>
+      <c r="P56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>24</v>
+      </c>
+      <c r="I57" t="s">
+        <v>7</v>
+      </c>
+      <c r="O57">
+        <v>24</v>
+      </c>
+      <c r="P57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="O58">
+        <v>24</v>
+      </c>
+      <c r="P58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+      <c r="O59">
+        <v>24</v>
+      </c>
+      <c r="P59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60">
+        <v>24</v>
+      </c>
+      <c r="P60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H61">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s">
+        <v>48</v>
+      </c>
+      <c r="O61">
+        <v>24</v>
+      </c>
+      <c r="P61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>24</v>
+      </c>
+      <c r="I62" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62">
+        <v>24</v>
+      </c>
+      <c r="P62" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2542,17 +2542,53 @@
       <c r="B38" t="s">
         <v>6</v>
       </c>
+      <c r="C38">
+        <v>3.23104858398E-3</v>
+      </c>
+      <c r="D38">
+        <v>3.23104858398E-3</v>
+      </c>
+      <c r="E38">
+        <v>12.9921875</v>
+      </c>
+      <c r="F38">
+        <v>143.03515625</v>
+      </c>
       <c r="H38">
         <v>16</v>
       </c>
       <c r="I38" t="s">
         <v>6</v>
       </c>
+      <c r="J38">
+        <v>2.8939247131299999E-3</v>
+      </c>
+      <c r="K38">
+        <v>2.8939247131299999E-3</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>143.046875</v>
+      </c>
       <c r="O38">
         <v>16</v>
       </c>
       <c r="P38" t="s">
         <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>3.1528472900400001E-3</v>
+      </c>
+      <c r="R38">
+        <v>3.1528472900400001E-3</v>
+      </c>
+      <c r="S38">
+        <v>13</v>
+      </c>
+      <c r="T38">
+        <v>143.046875</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -2562,17 +2598,53 @@
       <c r="B39" t="s">
         <v>7</v>
       </c>
+      <c r="C39">
+        <v>0.81254911422700005</v>
+      </c>
+      <c r="D39">
+        <v>0.81578016281099996</v>
+      </c>
+      <c r="E39">
+        <v>31.12109375</v>
+      </c>
+      <c r="F39">
+        <v>161.03125</v>
+      </c>
       <c r="H39">
         <v>16</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
       </c>
+      <c r="J39">
+        <v>0.50189304351800001</v>
+      </c>
+      <c r="K39">
+        <v>0.504786968231</v>
+      </c>
+      <c r="L39">
+        <v>31.125</v>
+      </c>
+      <c r="M39">
+        <v>161.0390625</v>
+      </c>
       <c r="O39">
         <v>16</v>
       </c>
       <c r="P39" t="s">
         <v>7</v>
+      </c>
+      <c r="Q39">
+        <v>0.49463009834299998</v>
+      </c>
+      <c r="R39">
+        <v>0.49778294563300002</v>
+      </c>
+      <c r="S39">
+        <v>31.125</v>
+      </c>
+      <c r="T39">
+        <v>161.0390625</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -2582,17 +2654,53 @@
       <c r="B40" t="s">
         <v>12</v>
       </c>
+      <c r="C40">
+        <v>0.81347107887299996</v>
+      </c>
+      <c r="D40">
+        <v>0.81670212745699999</v>
+      </c>
+      <c r="E40">
+        <v>31.12109375</v>
+      </c>
+      <c r="F40">
+        <v>161.03125</v>
+      </c>
       <c r="H40">
         <v>16</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
       </c>
+      <c r="J40">
+        <v>0.50281000137300003</v>
+      </c>
+      <c r="K40">
+        <v>0.50570392608600001</v>
+      </c>
+      <c r="L40">
+        <v>31.125</v>
+      </c>
+      <c r="M40">
+        <v>161.0390625</v>
+      </c>
       <c r="O40">
         <v>16</v>
       </c>
       <c r="P40" t="s">
         <v>12</v>
+      </c>
+      <c r="Q40">
+        <v>0.49560308456399998</v>
+      </c>
+      <c r="R40">
+        <v>0.49875593185400002</v>
+      </c>
+      <c r="S40">
+        <v>31.125</v>
+      </c>
+      <c r="T40">
+        <v>161.0390625</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -2602,17 +2710,53 @@
       <c r="B41" t="s">
         <v>13</v>
       </c>
+      <c r="C41">
+        <v>2.2430419921900002E-3</v>
+      </c>
+      <c r="D41">
+        <v>332.26220202399998</v>
+      </c>
+      <c r="E41">
+        <v>841.88671875</v>
+      </c>
+      <c r="F41">
+        <v>3308.84375</v>
+      </c>
       <c r="H41">
         <v>16</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
       </c>
+      <c r="J41">
+        <v>2.14505195618E-3</v>
+      </c>
+      <c r="K41">
+        <v>1213.7260139</v>
+      </c>
+      <c r="L41">
+        <v>847.359375</v>
+      </c>
+      <c r="M41">
+        <v>3312.5703125</v>
+      </c>
       <c r="O41">
         <v>16</v>
       </c>
       <c r="P41" t="s">
         <v>13</v>
+      </c>
+      <c r="Q41">
+        <v>2.2990703582800001E-3</v>
+      </c>
+      <c r="R41">
+        <v>1164.9321448799999</v>
+      </c>
+      <c r="S41">
+        <v>846.84375</v>
+      </c>
+      <c r="T41">
+        <v>3311.00390625</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -2622,17 +2766,53 @@
       <c r="B42" t="s">
         <v>47</v>
       </c>
+      <c r="C42">
+        <v>39.359436035199998</v>
+      </c>
+      <c r="D42">
+        <v>371.62163806000001</v>
+      </c>
+      <c r="E42">
+        <v>841.88671875</v>
+      </c>
+      <c r="F42">
+        <v>3308.84375</v>
+      </c>
       <c r="H42">
         <v>16</v>
       </c>
       <c r="I42" t="s">
         <v>47</v>
       </c>
+      <c r="J42">
+        <v>20.5304119587</v>
+      </c>
+      <c r="K42">
+        <v>1234.25642586</v>
+      </c>
+      <c r="L42">
+        <v>847.3828125</v>
+      </c>
+      <c r="M42">
+        <v>3312.5703125</v>
+      </c>
       <c r="O42">
         <v>16</v>
       </c>
       <c r="P42" t="s">
         <v>47</v>
+      </c>
+      <c r="Q42">
+        <v>19.749350070999999</v>
+      </c>
+      <c r="R42">
+        <v>1184.6814949499999</v>
+      </c>
+      <c r="S42">
+        <v>846.8671875</v>
+      </c>
+      <c r="T42">
+        <v>3311.00390625</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -2642,17 +2822,53 @@
       <c r="B43" t="s">
         <v>48</v>
       </c>
+      <c r="C43">
+        <v>222.47356510200001</v>
+      </c>
+      <c r="D43">
+        <v>594.09520316099997</v>
+      </c>
+      <c r="E43">
+        <v>841.921875</v>
+      </c>
+      <c r="F43">
+        <v>3308.84375</v>
+      </c>
       <c r="H43">
         <v>16</v>
       </c>
       <c r="I43" t="s">
         <v>48</v>
       </c>
+      <c r="J43">
+        <v>220.640267134</v>
+      </c>
+      <c r="K43">
+        <v>1454.89669299</v>
+      </c>
+      <c r="L43">
+        <v>847.421875</v>
+      </c>
+      <c r="M43">
+        <v>3312.5703125</v>
+      </c>
       <c r="O43">
         <v>16</v>
       </c>
       <c r="P43" t="s">
         <v>48</v>
+      </c>
+      <c r="Q43">
+        <v>282.56946992899998</v>
+      </c>
+      <c r="R43">
+        <v>1467.2509648800001</v>
+      </c>
+      <c r="S43">
+        <v>846.89453125</v>
+      </c>
+      <c r="T43">
+        <v>3311.00390625</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -2662,17 +2878,53 @@
       <c r="B44" t="s">
         <v>10</v>
       </c>
+      <c r="C44">
+        <v>4.22382354736E-3</v>
+      </c>
+      <c r="D44">
+        <v>594.09942698500004</v>
+      </c>
+      <c r="E44">
+        <v>841.921875</v>
+      </c>
+      <c r="F44">
+        <v>3308.84375</v>
+      </c>
       <c r="H44">
         <v>16</v>
       </c>
       <c r="I44" t="s">
         <v>10</v>
       </c>
+      <c r="J44">
+        <v>4.0068626403799998E-3</v>
+      </c>
+      <c r="K44">
+        <v>1454.9006998499999</v>
+      </c>
+      <c r="L44">
+        <v>847.421875</v>
+      </c>
+      <c r="M44">
+        <v>3312.5703125</v>
+      </c>
       <c r="O44">
         <v>16</v>
       </c>
       <c r="P44" t="s">
         <v>10</v>
+      </c>
+      <c r="Q44">
+        <v>3.97610664368E-3</v>
+      </c>
+      <c r="R44">
+        <v>1467.25494099</v>
+      </c>
+      <c r="S44">
+        <v>846.89453125</v>
+      </c>
+      <c r="T44">
+        <v>3311.00390625</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.3">

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -17,7 +17,7 @@
     <sheet name="fasta-method-2" sheetId="2" r:id="rId3"/>
     <sheet name="fasta-method-3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2871,7 +2871,7 @@
         <v>3311.00390625</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16</v>
       </c>
@@ -2990,17 +2990,53 @@
       <c r="B47" t="s">
         <v>6</v>
       </c>
+      <c r="C47">
+        <v>3.1151771545399999E-3</v>
+      </c>
+      <c r="D47">
+        <v>3.1151771545399999E-3</v>
+      </c>
+      <c r="E47">
+        <v>12.99609375</v>
+      </c>
+      <c r="F47">
+        <v>143.03515625</v>
+      </c>
       <c r="H47">
         <v>20</v>
       </c>
       <c r="I47" t="s">
         <v>6</v>
       </c>
+      <c r="J47">
+        <v>3.1490325927700001E-3</v>
+      </c>
+      <c r="K47">
+        <v>3.1490325927700001E-3</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <v>143.046875</v>
+      </c>
       <c r="O47">
         <v>20</v>
       </c>
       <c r="P47" t="s">
         <v>6</v>
+      </c>
+      <c r="Q47">
+        <v>3.5810470581099998E-3</v>
+      </c>
+      <c r="R47">
+        <v>3.5810470581099998E-3</v>
+      </c>
+      <c r="S47">
+        <v>13</v>
+      </c>
+      <c r="T47">
+        <v>143.046875</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -3010,17 +3046,53 @@
       <c r="B48" t="s">
         <v>7</v>
       </c>
+      <c r="C48">
+        <v>0.62836098670999996</v>
+      </c>
+      <c r="D48">
+        <v>0.63147616386399996</v>
+      </c>
+      <c r="E48">
+        <v>31.125</v>
+      </c>
+      <c r="F48">
+        <v>161.03125</v>
+      </c>
       <c r="H48">
         <v>20</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
       </c>
+      <c r="J48">
+        <v>0.507426977158</v>
+      </c>
+      <c r="K48">
+        <v>0.51057600974999995</v>
+      </c>
+      <c r="L48">
+        <v>31.125</v>
+      </c>
+      <c r="M48">
+        <v>161.0390625</v>
+      </c>
       <c r="O48">
         <v>20</v>
       </c>
       <c r="P48" t="s">
         <v>7</v>
+      </c>
+      <c r="Q48">
+        <v>0.49487805366499998</v>
+      </c>
+      <c r="R48">
+        <v>0.49845910072299998</v>
+      </c>
+      <c r="S48">
+        <v>31.125</v>
+      </c>
+      <c r="T48">
+        <v>161.0390625</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -3030,17 +3102,53 @@
       <c r="B49" t="s">
         <v>12</v>
       </c>
+      <c r="C49">
+        <v>0.62926387786899995</v>
+      </c>
+      <c r="D49">
+        <v>0.63237905502299996</v>
+      </c>
+      <c r="E49">
+        <v>31.125</v>
+      </c>
+      <c r="F49">
+        <v>161.03125</v>
+      </c>
       <c r="H49">
         <v>20</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
       </c>
+      <c r="J49">
+        <v>0.50858688354500003</v>
+      </c>
+      <c r="K49">
+        <v>0.51173591613799996</v>
+      </c>
+      <c r="L49">
+        <v>31.125</v>
+      </c>
+      <c r="M49">
+        <v>161.0390625</v>
+      </c>
       <c r="O49">
         <v>20</v>
       </c>
       <c r="P49" t="s">
         <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>0.49576282501199997</v>
+      </c>
+      <c r="R49">
+        <v>0.49934387207000003</v>
+      </c>
+      <c r="S49">
+        <v>31.125</v>
+      </c>
+      <c r="T49">
+        <v>161.0390625</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -3050,17 +3158,53 @@
       <c r="B50" t="s">
         <v>13</v>
       </c>
+      <c r="C50">
+        <v>2.5589466094999998E-3</v>
+      </c>
+      <c r="D50">
+        <v>311.30520510700001</v>
+      </c>
+      <c r="E50">
+        <v>1043.17578125</v>
+      </c>
+      <c r="F50">
+        <v>4044.7265625</v>
+      </c>
       <c r="H50">
         <v>20</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
       </c>
+      <c r="J50">
+        <v>2.5699138641400001E-3</v>
+      </c>
+      <c r="K50">
+        <v>935.72363781900003</v>
+      </c>
+      <c r="L50">
+        <v>1052.0546875</v>
+      </c>
+      <c r="M50">
+        <v>4049.26171875</v>
+      </c>
       <c r="O50">
         <v>20</v>
       </c>
       <c r="P50" t="s">
         <v>13</v>
+      </c>
+      <c r="Q50">
+        <v>2.6190280914300001E-3</v>
+      </c>
+      <c r="R50">
+        <v>941.89917397500005</v>
+      </c>
+      <c r="S50">
+        <v>1048.08203125</v>
+      </c>
+      <c r="T50">
+        <v>4047.5234375</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -3070,17 +3214,53 @@
       <c r="B51" t="s">
         <v>47</v>
       </c>
+      <c r="C51">
+        <v>35.496112108200002</v>
+      </c>
+      <c r="D51">
+        <v>346.80131721499998</v>
+      </c>
+      <c r="E51">
+        <v>1043.17578125</v>
+      </c>
+      <c r="F51">
+        <v>4044.7265625</v>
+      </c>
       <c r="H51">
         <v>20</v>
       </c>
       <c r="I51" t="s">
         <v>47</v>
       </c>
+      <c r="J51">
+        <v>20.218611001999999</v>
+      </c>
+      <c r="K51">
+        <v>955.94224882100002</v>
+      </c>
+      <c r="L51">
+        <v>1052.08203125</v>
+      </c>
+      <c r="M51">
+        <v>4049.26171875</v>
+      </c>
       <c r="O51">
         <v>20</v>
       </c>
       <c r="P51" t="s">
         <v>47</v>
+      </c>
+      <c r="Q51">
+        <v>20.633734941499998</v>
+      </c>
+      <c r="R51">
+        <v>962.532908916</v>
+      </c>
+      <c r="S51">
+        <v>1048.109375</v>
+      </c>
+      <c r="T51">
+        <v>4047.5234375</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -3090,17 +3270,53 @@
       <c r="B52" t="s">
         <v>48</v>
       </c>
+      <c r="C52">
+        <v>218.264959812</v>
+      </c>
+      <c r="D52">
+        <v>565.06627702699996</v>
+      </c>
+      <c r="E52">
+        <v>1043.19140625</v>
+      </c>
+      <c r="F52">
+        <v>4044.7265625</v>
+      </c>
       <c r="H52">
         <v>20</v>
       </c>
       <c r="I52" t="s">
         <v>48</v>
       </c>
+      <c r="J52">
+        <v>233.550317049</v>
+      </c>
+      <c r="K52">
+        <v>1189.4925658699999</v>
+      </c>
+      <c r="L52">
+        <v>1052.10546875</v>
+      </c>
+      <c r="M52">
+        <v>4049.26171875</v>
+      </c>
       <c r="O52">
         <v>20</v>
       </c>
       <c r="P52" t="s">
         <v>48</v>
+      </c>
+      <c r="Q52">
+        <v>248.906787157</v>
+      </c>
+      <c r="R52">
+        <v>1211.4396960700001</v>
+      </c>
+      <c r="S52">
+        <v>1048.1328125</v>
+      </c>
+      <c r="T52">
+        <v>4047.5234375</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -3110,17 +3326,53 @@
       <c r="B53" t="s">
         <v>10</v>
       </c>
+      <c r="C53">
+        <v>4.30107116699E-3</v>
+      </c>
+      <c r="D53">
+        <v>565.07057809800006</v>
+      </c>
+      <c r="E53">
+        <v>1043.19140625</v>
+      </c>
+      <c r="F53">
+        <v>4044.7265625</v>
+      </c>
       <c r="H53">
         <v>20</v>
       </c>
       <c r="I53" t="s">
         <v>10</v>
       </c>
+      <c r="J53">
+        <v>4.2409896850599997E-3</v>
+      </c>
+      <c r="K53">
+        <v>1189.4968068600001</v>
+      </c>
+      <c r="L53">
+        <v>1052.10546875</v>
+      </c>
+      <c r="M53">
+        <v>4049.26171875</v>
+      </c>
       <c r="O53">
         <v>20</v>
       </c>
       <c r="P53" t="s">
         <v>10</v>
+      </c>
+      <c r="Q53">
+        <v>4.3368339538599997E-3</v>
+      </c>
+      <c r="R53">
+        <v>1211.44403291</v>
+      </c>
+      <c r="S53">
+        <v>1048.1328125</v>
+      </c>
+      <c r="T53">
+        <v>4047.5234375</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.3">

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="468" windowWidth="28620" windowHeight="16320" activeTab="1"/>
+    <workbookView xWindow="-33540" yWindow="468" windowWidth="28620" windowHeight="16320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="j.sinuosa-info" sheetId="4" r:id="rId1"/>
     <sheet name="fasta-method-1" sheetId="1" r:id="rId2"/>
-    <sheet name="fasta-method-2" sheetId="2" r:id="rId3"/>
-    <sheet name="fasta-method-3" sheetId="3" r:id="rId4"/>
+    <sheet name="jsin-performance" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="57">
   <si>
     <t>Num procs</t>
   </si>
@@ -48,33 +47,15 @@
     <t>Calcs</t>
   </si>
   <si>
-    <t>File 1</t>
-  </si>
-  <si>
-    <t>Add unmapped 1</t>
-  </si>
-  <si>
     <t>End program</t>
   </si>
   <si>
-    <t>File 0</t>
-  </si>
-  <si>
     <t>Split files</t>
   </si>
   <si>
     <t>Merge files</t>
   </si>
   <si>
-    <t>File 2</t>
-  </si>
-  <si>
-    <t>File 3</t>
-  </si>
-  <si>
-    <t>File 4</t>
-  </si>
-  <si>
     <t>Bases</t>
   </si>
   <si>
@@ -184,6 +165,33 @@
   </si>
   <si>
     <t>pileup input with mq</t>
+  </si>
+  <si>
+    <t>procs</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>input type</t>
+  </si>
+  <si>
+    <t>angsd</t>
+  </si>
+  <si>
+    <t>pileup</t>
+  </si>
+  <si>
+    <t>pileup mq</t>
+  </si>
+  <si>
+    <t>max mem</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -539,66 +547,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>478.79</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>55567</v>
@@ -606,7 +614,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>50283993</v>
@@ -614,7 +622,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>48791504</v>
@@ -622,15 +630,15 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1487227</v>
@@ -638,7 +646,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1701604</v>
@@ -646,7 +654,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -654,47 +662,47 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -706,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="G43" workbookViewId="0">
+      <selection activeCell="R62" sqref="R62:S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,13 +742,13 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -916,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>862.50720691699996</v>
@@ -934,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>9515.2610449799995</v>
@@ -952,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q5">
         <v>8640.96923685</v>
@@ -972,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>1.8799304962199999E-3</v>
@@ -990,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J6">
         <v>2.29740142822E-2</v>
@@ -1008,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q6">
         <v>3.0918121337899999E-2</v>
@@ -1028,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>257.91841912299998</v>
@@ -1046,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>312.88279295000001</v>
@@ -1064,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q7">
         <v>311.47061991700002</v>
@@ -1084,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>4.2128562927200002E-3</v>
@@ -1102,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <v>1.6808986663799999E-2</v>
@@ -1120,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q8">
         <v>3.0441284179699999E-3</v>
@@ -1308,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>0.76520609855699995</v>
@@ -1326,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J13">
         <v>0.48099708557100002</v>
@@ -1344,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q13">
         <v>0.89995598792999998</v>
@@ -1364,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>1.34706497192E-3</v>
@@ -1382,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J14">
         <v>1.68704986572E-3</v>
@@ -1400,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="P14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q14">
         <v>1.12795829773E-3</v>
@@ -1420,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>36.746198892599999</v>
@@ -1438,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>18.4668970108</v>
@@ -1456,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q15">
         <v>19.070683956100002</v>
@@ -1476,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>254.481251955</v>
@@ -1494,7 +1502,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>237.360594034</v>
@@ -1512,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q16">
         <v>245.51206803299999</v>
@@ -1532,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>3.3550262451199999E-3</v>
@@ -1550,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J17">
         <v>2.8939247131299999E-3</v>
@@ -1568,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q17">
         <v>3.2620429992699998E-3</v>
@@ -1756,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>0.86113810539199998</v>
@@ -1774,7 +1782,7 @@
         <v>8</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J22">
         <v>0.49603295326199998</v>
@@ -1792,7 +1800,7 @@
         <v>8</v>
       </c>
       <c r="P22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q22">
         <v>0.74326419830299995</v>
@@ -1812,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>1.3940334320100001E-3</v>
@@ -1830,7 +1838,7 @@
         <v>8</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <v>1.6298294067399999E-3</v>
@@ -1848,7 +1856,7 @@
         <v>8</v>
       </c>
       <c r="P23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q23">
         <v>2.3519992828400001E-3</v>
@@ -1868,7 +1876,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>19.5485880375</v>
@@ -1886,7 +1894,7 @@
         <v>8</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>19.4055550098</v>
@@ -1904,7 +1912,7 @@
         <v>8</v>
       </c>
       <c r="P24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q24">
         <v>19.793821096399999</v>
@@ -1924,7 +1932,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>231.062651157</v>
@@ -1942,7 +1950,7 @@
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>237.73836612700001</v>
@@ -1960,7 +1968,7 @@
         <v>8</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q25">
         <v>241.98763489699999</v>
@@ -1980,7 +1988,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>3.0097961425799998E-3</v>
@@ -1998,7 +2006,7 @@
         <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <v>3.0329227447499999E-3</v>
@@ -2016,7 +2024,7 @@
         <v>8</v>
       </c>
       <c r="P26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q26">
         <v>2.7699470519999998E-3</v>
@@ -2204,7 +2212,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>0.78510093689000005</v>
@@ -2222,7 +2230,7 @@
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J31">
         <v>0.51461100578300001</v>
@@ -2240,7 +2248,7 @@
         <v>12</v>
       </c>
       <c r="P31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q31">
         <v>0.53560090064999999</v>
@@ -2260,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>2.06708908081E-3</v>
@@ -2278,7 +2286,7 @@
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J32">
         <v>2.6149749755899998E-3</v>
@@ -2296,7 +2304,7 @@
         <v>12</v>
       </c>
       <c r="P32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q32">
         <v>1.9938945770300001E-3</v>
@@ -2316,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>21.072934866000001</v>
@@ -2334,7 +2342,7 @@
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>20.5104968548</v>
@@ -2352,7 +2360,7 @@
         <v>12</v>
       </c>
       <c r="P33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q33">
         <v>34.206732034700003</v>
@@ -2372,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>231.09725308399999</v>
@@ -2390,7 +2398,7 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>225.01068115199999</v>
@@ -2408,7 +2416,7 @@
         <v>12</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q34">
         <v>221.228308916</v>
@@ -2428,7 +2436,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>3.43489646912E-3</v>
@@ -2446,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J35">
         <v>3.1528472900400001E-3</v>
@@ -2464,7 +2472,7 @@
         <v>12</v>
       </c>
       <c r="P35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q35">
         <v>3.3390522003200001E-3</v>
@@ -2652,7 +2660,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>0.81347107887299996</v>
@@ -2670,7 +2678,7 @@
         <v>16</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J40">
         <v>0.50281000137300003</v>
@@ -2688,7 +2696,7 @@
         <v>16</v>
       </c>
       <c r="P40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q40">
         <v>0.49560308456399998</v>
@@ -2708,7 +2716,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>2.2430419921900002E-3</v>
@@ -2726,7 +2734,7 @@
         <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J41">
         <v>2.14505195618E-3</v>
@@ -2744,7 +2752,7 @@
         <v>16</v>
       </c>
       <c r="P41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q41">
         <v>2.2990703582800001E-3</v>
@@ -2764,7 +2772,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>39.359436035199998</v>
@@ -2782,7 +2790,7 @@
         <v>16</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>20.5304119587</v>
@@ -2800,7 +2808,7 @@
         <v>16</v>
       </c>
       <c r="P42" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q42">
         <v>19.749350070999999</v>
@@ -2820,7 +2828,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>222.47356510200001</v>
@@ -2838,7 +2846,7 @@
         <v>16</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>220.640267134</v>
@@ -2856,7 +2864,7 @@
         <v>16</v>
       </c>
       <c r="P43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q43">
         <v>282.56946992899998</v>
@@ -2876,7 +2884,7 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>4.22382354736E-3</v>
@@ -2894,7 +2902,7 @@
         <v>16</v>
       </c>
       <c r="I44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J44">
         <v>4.0068626403799998E-3</v>
@@ -2912,7 +2920,7 @@
         <v>16</v>
       </c>
       <c r="P44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q44">
         <v>3.97610664368E-3</v>
@@ -3100,7 +3108,7 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>0.62926387786899995</v>
@@ -3118,7 +3126,7 @@
         <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J49">
         <v>0.50858688354500003</v>
@@ -3136,7 +3144,7 @@
         <v>20</v>
       </c>
       <c r="P49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q49">
         <v>0.49576282501199997</v>
@@ -3156,7 +3164,7 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>2.5589466094999998E-3</v>
@@ -3174,7 +3182,7 @@
         <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J50">
         <v>2.5699138641400001E-3</v>
@@ -3192,7 +3200,7 @@
         <v>20</v>
       </c>
       <c r="P50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q50">
         <v>2.6190280914300001E-3</v>
@@ -3212,7 +3220,7 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C51">
         <v>35.496112108200002</v>
@@ -3230,7 +3238,7 @@
         <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J51">
         <v>20.218611001999999</v>
@@ -3248,7 +3256,7 @@
         <v>20</v>
       </c>
       <c r="P51" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q51">
         <v>20.633734941499998</v>
@@ -3268,7 +3276,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C52">
         <v>218.264959812</v>
@@ -3286,7 +3294,7 @@
         <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <v>233.550317049</v>
@@ -3304,7 +3312,7 @@
         <v>20</v>
       </c>
       <c r="P52" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q52">
         <v>248.906787157</v>
@@ -3324,7 +3332,7 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <v>4.30107116699E-3</v>
@@ -3342,7 +3350,7 @@
         <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J53">
         <v>4.2409896850599997E-3</v>
@@ -3360,7 +3368,7 @@
         <v>20</v>
       </c>
       <c r="P53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q53">
         <v>4.3368339538599997E-3</v>
@@ -3438,17 +3446,53 @@
       <c r="B56" t="s">
         <v>6</v>
       </c>
+      <c r="C56">
+        <v>3.5600662231400002E-3</v>
+      </c>
+      <c r="D56">
+        <v>3.5600662231400002E-3</v>
+      </c>
+      <c r="E56">
+        <v>12.9921875</v>
+      </c>
+      <c r="F56">
+        <v>143.03515625</v>
+      </c>
       <c r="H56">
         <v>24</v>
       </c>
       <c r="I56" t="s">
         <v>6</v>
       </c>
+      <c r="J56">
+        <v>5.34009933472E-3</v>
+      </c>
+      <c r="K56">
+        <v>5.34009933472E-3</v>
+      </c>
+      <c r="L56">
+        <v>12.99609375</v>
+      </c>
+      <c r="M56">
+        <v>143.046875</v>
+      </c>
       <c r="O56">
         <v>24</v>
       </c>
       <c r="P56" t="s">
         <v>6</v>
+      </c>
+      <c r="Q56">
+        <v>3.5920143127399998E-3</v>
+      </c>
+      <c r="R56">
+        <v>3.5920143127399998E-3</v>
+      </c>
+      <c r="S56">
+        <v>12.99609375</v>
+      </c>
+      <c r="T56">
+        <v>143.046875</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -3458,17 +3502,53 @@
       <c r="B57" t="s">
         <v>7</v>
       </c>
+      <c r="C57">
+        <v>0.74398088455199995</v>
+      </c>
+      <c r="D57">
+        <v>0.74754095077500005</v>
+      </c>
+      <c r="E57">
+        <v>31.12109375</v>
+      </c>
+      <c r="F57">
+        <v>161.03125</v>
+      </c>
       <c r="H57">
         <v>24</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
       </c>
+      <c r="J57">
+        <v>0.50669384002700002</v>
+      </c>
+      <c r="K57">
+        <v>0.51203393936200003</v>
+      </c>
+      <c r="L57">
+        <v>31.12109375</v>
+      </c>
+      <c r="M57">
+        <v>161.0390625</v>
+      </c>
       <c r="O57">
         <v>24</v>
       </c>
       <c r="P57" t="s">
         <v>7</v>
+      </c>
+      <c r="Q57">
+        <v>0.497899055481</v>
+      </c>
+      <c r="R57">
+        <v>0.50149106979400004</v>
+      </c>
+      <c r="S57">
+        <v>31.12109375</v>
+      </c>
+      <c r="T57">
+        <v>161.0390625</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -3476,19 +3556,55 @@
         <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>0.74496698379500004</v>
+      </c>
+      <c r="D58">
+        <v>0.74852705001800002</v>
+      </c>
+      <c r="E58">
+        <v>31.12109375</v>
+      </c>
+      <c r="F58">
+        <v>161.03125</v>
       </c>
       <c r="H58">
         <v>24</v>
       </c>
       <c r="I58" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="J58">
+        <v>0.50765085220299999</v>
+      </c>
+      <c r="K58">
+        <v>0.51299095153800001</v>
+      </c>
+      <c r="L58">
+        <v>31.12109375</v>
+      </c>
+      <c r="M58">
+        <v>161.0390625</v>
       </c>
       <c r="O58">
         <v>24</v>
       </c>
       <c r="P58" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="Q58">
+        <v>0.49896907806399998</v>
+      </c>
+      <c r="R58">
+        <v>0.50256109237699997</v>
+      </c>
+      <c r="S58">
+        <v>31.12109375</v>
+      </c>
+      <c r="T58">
+        <v>161.0390625</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -3496,19 +3612,55 @@
         <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>2.6829242706299999E-3</v>
+      </c>
+      <c r="D59">
+        <v>299.56537389800002</v>
+      </c>
+      <c r="E59">
+        <v>1244.46484375</v>
+      </c>
+      <c r="F59">
+        <v>4780.6640625</v>
       </c>
       <c r="H59">
         <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>2.80690193176E-3</v>
+      </c>
+      <c r="K59">
+        <v>886.06707596800004</v>
+      </c>
+      <c r="L59">
+        <v>1250.72265625</v>
+      </c>
+      <c r="M59">
+        <v>4785.09765625</v>
       </c>
       <c r="O59">
         <v>24</v>
       </c>
       <c r="P59" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="Q59">
+        <v>2.7818679809599998E-3</v>
+      </c>
+      <c r="R59">
+        <v>889.00373697299995</v>
+      </c>
+      <c r="S59">
+        <v>1250.0390625</v>
+      </c>
+      <c r="T59">
+        <v>4783.51171875</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -3516,19 +3668,55 @@
         <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C60">
+        <v>25.104693174400001</v>
+      </c>
+      <c r="D60">
+        <v>324.67006707199999</v>
+      </c>
+      <c r="E60">
+        <v>1244.46875</v>
+      </c>
+      <c r="F60">
+        <v>4780.6640625</v>
       </c>
       <c r="H60">
         <v>24</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="J60">
+        <v>23.436739921600001</v>
+      </c>
+      <c r="K60">
+        <v>909.50381588899995</v>
+      </c>
+      <c r="L60">
+        <v>1250.75</v>
+      </c>
+      <c r="M60">
+        <v>4785.09765625</v>
       </c>
       <c r="O60">
         <v>24</v>
       </c>
       <c r="P60" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="Q60">
+        <v>24.572770118699999</v>
+      </c>
+      <c r="R60">
+        <v>913.57650709200004</v>
+      </c>
+      <c r="S60">
+        <v>1250.0703125</v>
+      </c>
+      <c r="T60">
+        <v>4783.51171875</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -3536,19 +3724,55 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="C61">
+        <v>252.10975098599999</v>
+      </c>
+      <c r="D61">
+        <v>576.77981805800005</v>
+      </c>
+      <c r="E61">
+        <v>1244.48828125</v>
+      </c>
+      <c r="F61">
+        <v>4780.6640625</v>
       </c>
       <c r="H61">
         <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="J61">
+        <v>263.73770308500002</v>
+      </c>
+      <c r="K61">
+        <v>1173.24151897</v>
+      </c>
+      <c r="L61">
+        <v>1250.7734375</v>
+      </c>
+      <c r="M61">
+        <v>4785.09765625</v>
       </c>
       <c r="O61">
         <v>24</v>
       </c>
       <c r="P61" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="Q61">
+        <v>255.201293945</v>
+      </c>
+      <c r="R61">
+        <v>1168.77780104</v>
+      </c>
+      <c r="S61">
+        <v>1250.08984375</v>
+      </c>
+      <c r="T61">
+        <v>4783.51171875</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -3556,19 +3780,55 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>4.7118663787799999E-3</v>
+      </c>
+      <c r="D62">
+        <v>576.78452992400003</v>
+      </c>
+      <c r="E62">
+        <v>1244.48828125</v>
+      </c>
+      <c r="F62">
+        <v>4780.6640625</v>
       </c>
       <c r="H62">
         <v>24</v>
       </c>
       <c r="I62" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="J62">
+        <v>4.9719810485799997E-3</v>
+      </c>
+      <c r="K62">
+        <v>1173.2464909600001</v>
+      </c>
+      <c r="L62">
+        <v>1250.7734375</v>
+      </c>
+      <c r="M62">
+        <v>4785.09765625</v>
       </c>
       <c r="O62">
         <v>24</v>
       </c>
       <c r="P62" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="Q62">
+        <v>4.7678947448699998E-3</v>
+      </c>
+      <c r="R62">
+        <v>1168.78256893</v>
+      </c>
+      <c r="S62">
+        <v>1250.08984375</v>
+      </c>
+      <c r="T62">
+        <v>4783.51171875</v>
       </c>
     </row>
   </sheetData>
@@ -3579,1807 +3839,617 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>3.7097930908200002E-4</v>
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>3.7097930908200002E-4</v>
-      </c>
-      <c r="E2">
-        <v>17.69921875</v>
-      </c>
-      <c r="F2">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31.3671875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>188.14811492000001</v>
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>188.14848589900001</v>
-      </c>
-      <c r="E3">
-        <v>112.43359375</v>
-      </c>
-      <c r="F3">
-        <v>257.2734375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1121.1659028500001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1705.8528160999999</v>
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>1894.0013019999999</v>
-      </c>
-      <c r="E4">
-        <v>112.5625</v>
-      </c>
-      <c r="F4">
-        <v>257.2734375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31.90625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1705.8549380300001</v>
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>1894.0034239300001</v>
-      </c>
-      <c r="E5">
-        <v>112.5625</v>
-      </c>
-      <c r="F5">
-        <v>257.2734375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8953.0339941999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>428.535593033</v>
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>2322.53901696</v>
-      </c>
-      <c r="E6">
-        <v>112.56640625</v>
-      </c>
-      <c r="F6">
-        <v>257.2734375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32.09375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>9828.8999838799991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>3.4093856811500002E-4</v>
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
       </c>
       <c r="D8">
-        <v>3.4093856811500002E-4</v>
-      </c>
-      <c r="E8">
-        <v>17.6953125</v>
-      </c>
-      <c r="F8">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>239.046875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>149.994071007</v>
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>149.994411945</v>
-      </c>
-      <c r="E9">
-        <v>112.59375</v>
-      </c>
-      <c r="F9">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>734.45515799500004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>240.53515625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>3371.66666412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>243.4140625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>3272.16667891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>439.83984375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>657.82542300199998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>444.10546875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>2270.9556729800001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>445.171875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>2248.0037970499998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>7.1089267730700002E-3</v>
-      </c>
-      <c r="D10">
-        <v>150.00152087199999</v>
-      </c>
-      <c r="E10">
-        <v>112.59375</v>
-      </c>
-      <c r="F10">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1184.8154439899999</v>
-      </c>
-      <c r="D11">
-        <v>1334.80985594</v>
-      </c>
-      <c r="E11">
-        <v>546.42578125</v>
-      </c>
-      <c r="F11">
-        <v>1176.6484375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>7.8017981052399996</v>
-      </c>
-      <c r="D12">
-        <v>1342.6116540400001</v>
-      </c>
-      <c r="E12">
-        <v>546.3984375</v>
-      </c>
-      <c r="F12">
-        <v>1176.6171875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>1192.6175870899999</v>
-      </c>
-      <c r="D13">
-        <v>1342.6191079600001</v>
-      </c>
-      <c r="E13">
-        <v>546.3984375</v>
-      </c>
-      <c r="F13">
-        <v>1176.6171875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>33.727969884899998</v>
-      </c>
-      <c r="D14">
-        <v>1376.34707785</v>
-      </c>
-      <c r="E14">
-        <v>546.3984375</v>
-      </c>
-      <c r="F14">
-        <v>1176.6171875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>385.74340605700002</v>
-      </c>
-      <c r="D15">
-        <v>1762.0904839</v>
-      </c>
-      <c r="E15">
-        <v>546.42578125</v>
-      </c>
-      <c r="F15">
-        <v>1176.6171875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>2.8085708618199998E-4</v>
-      </c>
-      <c r="D17">
-        <v>2.8085708618199998E-4</v>
-      </c>
-      <c r="E17">
-        <v>17.703125</v>
-      </c>
-      <c r="F17">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>144.88510108</v>
-      </c>
-      <c r="D18">
-        <v>144.88538193700001</v>
-      </c>
-      <c r="E18">
-        <v>112.6015625</v>
-      </c>
-      <c r="F18">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>644.08984375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>12</v>
       </c>
-      <c r="C19">
-        <v>6.3219070434600002E-3</v>
-      </c>
-      <c r="D19">
-        <v>144.89170384400001</v>
-      </c>
-      <c r="E19">
-        <v>112.6015625</v>
-      </c>
-      <c r="F19">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>982.93391799899996</v>
-      </c>
-      <c r="D20">
-        <v>1127.8192999400001</v>
-      </c>
-      <c r="E20">
-        <v>755.45703125</v>
-      </c>
-      <c r="F20">
-        <v>1531.890625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3</v>
-      </c>
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>2.4887640476200001</v>
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
       </c>
       <c r="D21">
-        <v>1130.30806398</v>
-      </c>
-      <c r="E21">
-        <v>755.45703125</v>
-      </c>
-      <c r="F21">
-        <v>1531.875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>597.13107395199995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>0.272368907928</v>
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>1130.5804328900001</v>
-      </c>
-      <c r="E22">
-        <v>755.44140625</v>
-      </c>
-      <c r="F22">
-        <v>1531.859375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>644.94921875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>985.689404964</v>
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>1130.5811088099999</v>
-      </c>
-      <c r="E23">
-        <v>755.44140625</v>
-      </c>
-      <c r="F23">
-        <v>1531.859375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1595.7928309399999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>37.547255992899998</v>
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>1168.1283648000001</v>
-      </c>
-      <c r="E24">
-        <v>755.4609375</v>
-      </c>
-      <c r="F24">
-        <v>1531.859375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>646.1484375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>421.58666801499999</v>
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>1589.71503282</v>
-      </c>
-      <c r="E25">
-        <v>755.46875</v>
-      </c>
-      <c r="F25">
-        <v>1531.859375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1582.1059699100001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>841.921875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>3.3092498779299998E-4</v>
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>3.3092498779299998E-4</v>
-      </c>
-      <c r="E27">
-        <v>17.69921875</v>
-      </c>
-      <c r="F27">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>594.09942698500004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>144.91441416699999</v>
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
       </c>
       <c r="D28">
-        <v>144.914745092</v>
-      </c>
-      <c r="E28">
-        <v>112.59765625</v>
-      </c>
-      <c r="F28">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>846.89453125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>6.9699287414600004E-3</v>
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>144.92171502100001</v>
-      </c>
-      <c r="E29">
-        <v>112.59765625</v>
-      </c>
-      <c r="F29">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1467.25494099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>876.05271601699997</v>
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
       </c>
       <c r="D30">
-        <v>1020.96746111</v>
-      </c>
-      <c r="E30">
-        <v>963.90234375</v>
-      </c>
-      <c r="F30">
-        <v>1887.125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>847.421875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>9.1271877288799999E-2</v>
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
       </c>
       <c r="D31">
-        <v>1021.05873299</v>
-      </c>
-      <c r="E31">
-        <v>963.91015625</v>
-      </c>
-      <c r="F31">
-        <v>1887.125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1454.9006998499999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32">
-        <v>1.6418170929</v>
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
       </c>
       <c r="D32">
-        <v>1022.70055008</v>
-      </c>
-      <c r="E32">
-        <v>963.89453125</v>
-      </c>
-      <c r="F32">
-        <v>1887.109375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1043.19140625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>4.8922469615899997</v>
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
       </c>
       <c r="D33">
-        <v>1027.5927970400001</v>
-      </c>
-      <c r="E33">
-        <v>963.87890625</v>
-      </c>
-      <c r="F33">
-        <v>1887.09375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>565.07057809800006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34">
-        <v>882.67173004200004</v>
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>1027.59344506</v>
-      </c>
-      <c r="E34">
-        <v>963.87890625</v>
-      </c>
-      <c r="F34">
-        <v>1887.09375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1048.1328125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35">
-        <v>36.160326003999998</v>
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
       </c>
       <c r="D35">
-        <v>1063.7537710700001</v>
-      </c>
-      <c r="E35">
-        <v>963.87890625</v>
-      </c>
-      <c r="F35">
-        <v>1887.09375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1211.44403291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>438.46141886700002</v>
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>1502.21518993</v>
-      </c>
-      <c r="E36">
-        <v>963.90625</v>
-      </c>
-      <c r="F36">
-        <v>1887.09375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1052.10546875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37">
+        <v>1189.4968068600001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>1.92880630493E-4</v>
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
       </c>
       <c r="D38">
-        <v>1.92880630493E-4</v>
-      </c>
-      <c r="E38">
-        <v>17.703125</v>
-      </c>
-      <c r="F38">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1244.48828125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>146.40720701199999</v>
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
       </c>
       <c r="D39">
-        <v>146.40739989299999</v>
-      </c>
-      <c r="E39">
-        <v>112.6015625</v>
-      </c>
-      <c r="F39">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>576.78452992400003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>2.8932094573999999E-2</v>
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
       </c>
       <c r="D40">
-        <v>146.43633198699999</v>
-      </c>
-      <c r="E40">
-        <v>112.6015625</v>
-      </c>
-      <c r="F40">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1250.08984375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41">
-        <v>832.79557514199996</v>
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
       </c>
       <c r="D41">
-        <v>979.20297503500001</v>
-      </c>
-      <c r="E41">
-        <v>1172.6640625</v>
-      </c>
-      <c r="F41">
-        <v>2242.3515625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1168.78256893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42">
-        <v>4.3879032135000003E-2</v>
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
       </c>
       <c r="D42">
-        <v>979.24685406699996</v>
-      </c>
-      <c r="E42">
-        <v>1172.66796875</v>
-      </c>
-      <c r="F42">
-        <v>2242.3515625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1250.7734375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43">
-        <v>5.8293342590300004E-4</v>
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
       </c>
       <c r="D43">
-        <v>979.24743699999999</v>
-      </c>
-      <c r="E43">
-        <v>1172.66796875</v>
-      </c>
-      <c r="F43">
-        <v>2242.3515625</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44">
-        <v>0.34614086151099999</v>
-      </c>
-      <c r="D44">
-        <v>979.59357786199996</v>
-      </c>
-      <c r="E44">
-        <v>1172.65234375</v>
-      </c>
-      <c r="F44">
-        <v>2242.3359375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45">
-        <v>7.5507164001500004E-4</v>
-      </c>
-      <c r="D45">
-        <v>979.59433293300003</v>
-      </c>
-      <c r="E45">
-        <v>1172.65234375</v>
-      </c>
-      <c r="F45">
-        <v>2242.3359375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46">
-        <v>833.15858793300004</v>
-      </c>
-      <c r="D46">
-        <v>979.59491992000005</v>
-      </c>
-      <c r="E46">
-        <v>1172.65234375</v>
-      </c>
-      <c r="F46">
-        <v>2242.3359375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>34.1564221382</v>
-      </c>
-      <c r="D47">
-        <v>1013.75134206</v>
-      </c>
-      <c r="E47">
-        <v>1172.65234375</v>
-      </c>
-      <c r="F47">
-        <v>2242.3359375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>448.476294994</v>
-      </c>
-      <c r="D48">
-        <v>1462.2276370500001</v>
-      </c>
-      <c r="E48">
-        <v>1172.6796875</v>
-      </c>
-      <c r="F48">
-        <v>2242.3359375</v>
+        <v>1173.2464909600001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>2.9087066650399998E-4</v>
-      </c>
-      <c r="D2">
-        <v>2.9087066650399998E-4</v>
-      </c>
-      <c r="E2">
-        <v>17.69140625</v>
-      </c>
-      <c r="F2">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2.6319670677200002</v>
-      </c>
-      <c r="D3">
-        <v>2.63225793839</v>
-      </c>
-      <c r="E3">
-        <v>115.2890625</v>
-      </c>
-      <c r="F3">
-        <v>262.09375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1858.72492599</v>
-      </c>
-      <c r="D4">
-        <v>1861.35718393</v>
-      </c>
-      <c r="E4">
-        <v>115.50390625</v>
-      </c>
-      <c r="F4">
-        <v>262.2265625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1858.7251849199999</v>
-      </c>
-      <c r="D5">
-        <v>1861.35744286</v>
-      </c>
-      <c r="E5">
-        <v>115.50390625</v>
-      </c>
-      <c r="F5">
-        <v>262.2265625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>525.07429719000004</v>
-      </c>
-      <c r="D6">
-        <v>2386.4317400499999</v>
-      </c>
-      <c r="E6">
-        <v>115.5078125</v>
-      </c>
-      <c r="F6">
-        <v>262.2265625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>2.4104118347199999E-4</v>
-      </c>
-      <c r="D8">
-        <v>2.4104118347199999E-4</v>
-      </c>
-      <c r="E8">
-        <v>17.69921875</v>
-      </c>
-      <c r="F8">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>1.6502389907799999</v>
-      </c>
-      <c r="D9">
-        <v>1.6504800319699999</v>
-      </c>
-      <c r="E9">
-        <v>115.29296875</v>
-      </c>
-      <c r="F9">
-        <v>261.9765625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2.1600723266600001E-4</v>
-      </c>
-      <c r="D10">
-        <v>1.6506960392000001</v>
-      </c>
-      <c r="E10">
-        <v>115.296875</v>
-      </c>
-      <c r="F10">
-        <v>261.9765625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1296.1308770200001</v>
-      </c>
-      <c r="D11">
-        <v>1297.78135705</v>
-      </c>
-      <c r="E11">
-        <v>544.4453125</v>
-      </c>
-      <c r="F11">
-        <v>1185.3046875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>7.5101852417000005E-4</v>
-      </c>
-      <c r="D12">
-        <v>1297.78210807</v>
-      </c>
-      <c r="E12">
-        <v>544.4453125</v>
-      </c>
-      <c r="F12">
-        <v>1185.3046875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>1296.1318650200001</v>
-      </c>
-      <c r="D13">
-        <v>1297.78256106</v>
-      </c>
-      <c r="E13">
-        <v>544.4453125</v>
-      </c>
-      <c r="F13">
-        <v>1185.3046875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>35.913582086600002</v>
-      </c>
-      <c r="D14">
-        <v>1333.6961431499999</v>
-      </c>
-      <c r="E14">
-        <v>544.4453125</v>
-      </c>
-      <c r="F14">
-        <v>1185.3046875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>546.43232893899994</v>
-      </c>
-      <c r="D15">
-        <v>1880.1284720900001</v>
-      </c>
-      <c r="E15">
-        <v>544.4609375</v>
-      </c>
-      <c r="F15">
-        <v>1185.3046875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>3.2019615173299999E-4</v>
-      </c>
-      <c r="D17">
-        <v>3.2019615173299999E-4</v>
-      </c>
-      <c r="E17">
-        <v>17.6953125</v>
-      </c>
-      <c r="F17">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>2.51171994209</v>
-      </c>
-      <c r="D18">
-        <v>2.5120401382400002</v>
-      </c>
-      <c r="E18">
-        <v>115.2890625</v>
-      </c>
-      <c r="F18">
-        <v>261.9765625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>2.4199485778799999E-4</v>
-      </c>
-      <c r="D19">
-        <v>2.5122821330999998</v>
-      </c>
-      <c r="E19">
-        <v>115.29296875</v>
-      </c>
-      <c r="F19">
-        <v>261.9765625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>1054.9876260799999</v>
-      </c>
-      <c r="D20">
-        <v>1057.49966621</v>
-      </c>
-      <c r="E20">
-        <v>756.50390625</v>
-      </c>
-      <c r="F20">
-        <v>1545.875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>2.0828909873999999</v>
-      </c>
-      <c r="D21">
-        <v>1059.5825572000001</v>
-      </c>
-      <c r="E21">
-        <v>756.484375</v>
-      </c>
-      <c r="F21">
-        <v>1545.84375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>3.8099288940400002E-4</v>
-      </c>
-      <c r="D22">
-        <v>1059.58293819</v>
-      </c>
-      <c r="E22">
-        <v>756.484375</v>
-      </c>
-      <c r="F22">
-        <v>1545.84375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>1057.07094598</v>
-      </c>
-      <c r="D23">
-        <v>1059.5832281099999</v>
-      </c>
-      <c r="E23">
-        <v>756.484375</v>
-      </c>
-      <c r="F23">
-        <v>1545.84375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>32.9262480736</v>
-      </c>
-      <c r="D24">
-        <v>1092.5094761800001</v>
-      </c>
-      <c r="E24">
-        <v>756.484375</v>
-      </c>
-      <c r="F24">
-        <v>1545.84375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>555.23942398999998</v>
-      </c>
-      <c r="D25">
-        <v>1647.74890018</v>
-      </c>
-      <c r="E25">
-        <v>756.48828125</v>
-      </c>
-      <c r="F25">
-        <v>1545.84375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>2.2983551025400001E-4</v>
-      </c>
-      <c r="D27">
-        <v>2.2983551025400001E-4</v>
-      </c>
-      <c r="E27">
-        <v>17.69921875</v>
-      </c>
-      <c r="F27">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>1.6211700439500001</v>
-      </c>
-      <c r="D28">
-        <v>1.62139987946</v>
-      </c>
-      <c r="E28">
-        <v>115.29296875</v>
-      </c>
-      <c r="F28">
-        <v>261.9765625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>2.5296211242700002E-4</v>
-      </c>
-      <c r="D29">
-        <v>1.62165284157</v>
-      </c>
-      <c r="E29">
-        <v>115.296875</v>
-      </c>
-      <c r="F29">
-        <v>261.9765625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>891.05170393000003</v>
-      </c>
-      <c r="D30">
-        <v>892.67310380900005</v>
-      </c>
-      <c r="E30">
-        <v>968.59375</v>
-      </c>
-      <c r="F30">
-        <v>1906.421875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>4.4512748718300002E-4</v>
-      </c>
-      <c r="D31">
-        <v>892.67354893699996</v>
-      </c>
-      <c r="E31">
-        <v>968.59375</v>
-      </c>
-      <c r="F31">
-        <v>1906.421875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32">
-        <v>3.27723097801</v>
-      </c>
-      <c r="D32">
-        <v>895.950779915</v>
-      </c>
-      <c r="E32">
-        <v>968.5625</v>
-      </c>
-      <c r="F32">
-        <v>1906.390625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>7.67946243286E-4</v>
-      </c>
-      <c r="D33">
-        <v>895.95154786099999</v>
-      </c>
-      <c r="E33">
-        <v>968.5625</v>
-      </c>
-      <c r="F33">
-        <v>1906.390625</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34">
-        <v>894.33054208800002</v>
-      </c>
-      <c r="D34">
-        <v>895.95219492900003</v>
-      </c>
-      <c r="E34">
-        <v>968.5625</v>
-      </c>
-      <c r="F34">
-        <v>1906.390625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35">
-        <v>33.463608026499998</v>
-      </c>
-      <c r="D35">
-        <v>929.41580295599999</v>
-      </c>
-      <c r="E35">
-        <v>968.57421875</v>
-      </c>
-      <c r="F35">
-        <v>1906.390625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>511.87103605300001</v>
-      </c>
-      <c r="D36">
-        <v>1441.28683901</v>
-      </c>
-      <c r="E36">
-        <v>968.578125</v>
-      </c>
-      <c r="F36">
-        <v>1906.390625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>3.7312507629400001E-4</v>
-      </c>
-      <c r="D38">
-        <v>3.7312507629400001E-4</v>
-      </c>
-      <c r="E38">
-        <v>17.69921875</v>
-      </c>
-      <c r="F38">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>1.53349280357</v>
-      </c>
-      <c r="D39">
-        <v>1.53386592865</v>
-      </c>
-      <c r="E39">
-        <v>115.29296875</v>
-      </c>
-      <c r="F39">
-        <v>261.9765625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>2.0217895507799999E-4</v>
-      </c>
-      <c r="D40">
-        <v>1.5340681076</v>
-      </c>
-      <c r="E40">
-        <v>115.296875</v>
-      </c>
-      <c r="F40">
-        <v>261.9765625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41">
-        <v>824.82877421399996</v>
-      </c>
-      <c r="D41">
-        <v>826.36264014200003</v>
-      </c>
-      <c r="E41">
-        <v>1180.6484375</v>
-      </c>
-      <c r="F41">
-        <v>2266.98046875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42">
-        <v>5.1417768001599997</v>
-      </c>
-      <c r="D42">
-        <v>831.50441694300002</v>
-      </c>
-      <c r="E42">
-        <v>1180.6015625</v>
-      </c>
-      <c r="F42">
-        <v>2266.93359375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43">
-        <v>9.2720985412599998E-4</v>
-      </c>
-      <c r="D43">
-        <v>831.50534415200002</v>
-      </c>
-      <c r="E43">
-        <v>1180.6015625</v>
-      </c>
-      <c r="F43">
-        <v>2266.93359375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44">
-        <v>7.2693824768099995E-4</v>
-      </c>
-      <c r="D44">
-        <v>831.50607109099997</v>
-      </c>
-      <c r="E44">
-        <v>1180.6015625</v>
-      </c>
-      <c r="F44">
-        <v>2266.93359375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45">
-        <v>7.2383880615199995E-4</v>
-      </c>
-      <c r="D45">
-        <v>831.50679492999996</v>
-      </c>
-      <c r="E45">
-        <v>1180.6015625</v>
-      </c>
-      <c r="F45">
-        <v>2266.93359375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46">
-        <v>829.97346687300001</v>
-      </c>
-      <c r="D46">
-        <v>831.50753498100005</v>
-      </c>
-      <c r="E46">
-        <v>1180.6015625</v>
-      </c>
-      <c r="F46">
-        <v>2266.93359375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>34.221680164299997</v>
-      </c>
-      <c r="D47">
-        <v>865.72921514500001</v>
-      </c>
-      <c r="E47">
-        <v>1180.61328125</v>
-      </c>
-      <c r="F47">
-        <v>2266.93359375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>484.60965991</v>
-      </c>
-      <c r="D48">
-        <v>1350.33887506</v>
-      </c>
-      <c r="E48">
-        <v>1180.6171875</v>
-      </c>
-      <c r="F48">
-        <v>2266.93359375</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="468" windowWidth="28620" windowHeight="16320" activeTab="2"/>
+    <workbookView xWindow="-33540" yWindow="465" windowWidth="28620" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="j.sinuosa-info" sheetId="4" r:id="rId1"/>
     <sheet name="fasta-method-1" sheetId="1" r:id="rId2"/>
     <sheet name="jsin-performance" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="65">
   <si>
     <t>Num procs</t>
   </si>
@@ -131,9 +126,6 @@
     <t>Size of ref genome file</t>
   </si>
   <si>
-    <t>Size of referee output</t>
-  </si>
-  <si>
     <t>time -p angsd -GL 2 -i /N/dc2/scratch/grthomas/qtip/jsinuosa/mapped/SRR5380902-sorted.bam -ref /N/dc2/scratch/grthomas/qtip/jsinuosa/assembly/Trinity.fasta -minQ 0 -doGlf 4 -out jsinuosa-angsd</t>
   </si>
   <si>
@@ -192,6 +184,33 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Assembly command</t>
+  </si>
+  <si>
+    <t>Trinity --seqType fq --max_memory 100G  --left SRR5380902_1.fastq  --right SRR5380902_2.fastq --CPU 8</t>
+  </si>
+  <si>
+    <t>BWA command</t>
+  </si>
+  <si>
+    <t>bwa mem Trinity.fasta SRR5380902_1.fastq SRR5380902_2.fastq &gt; SRR5380902.sam</t>
+  </si>
+  <si>
+    <t>Size of ANGSD referee output</t>
+  </si>
+  <si>
+    <t>pileup command</t>
+  </si>
+  <si>
+    <t>pileup file size</t>
+  </si>
+  <si>
+    <t>3.60 GB</t>
+  </si>
+  <si>
+    <t>samtools mpileup -d 999999999 -f $jsindir/assembly/Trinity.fasta -Q 0 -B -o $jsindir/jsin.pileup $jsindir/mapped/SRR5380902-sorted.bam</t>
   </si>
 </sst>
 </file>
@@ -289,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,7 +343,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,180 +552,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>55567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>50283993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>478.79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>478.79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8">
-        <v>55567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>50283993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>48791504</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>1487227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>1701604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="25" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="27" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="28" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="29" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -718,40 +761,40 @@
       <selection activeCell="R62" sqref="R62:S62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -807,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -863,7 +906,7 @@
         <v>142.984375</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -919,12 +962,12 @@
         <v>161.03125</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>862.50720691699996</v>
@@ -942,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <v>9515.2610449799995</v>
@@ -960,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q5">
         <v>8640.96923685</v>
@@ -975,12 +1018,12 @@
         <v>161.7265625</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>1.8799304962199999E-3</v>
@@ -998,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>2.29740142822E-2</v>
@@ -1016,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6">
         <v>3.0918121337899999E-2</v>
@@ -1031,12 +1074,12 @@
         <v>161.7265625</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>257.91841912299998</v>
@@ -1054,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>312.88279295000001</v>
@@ -1072,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7">
         <v>311.47061991700002</v>
@@ -1087,7 +1130,7 @@
         <v>161.7265625</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1143,7 +1186,7 @@
         <v>161.7265625</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1255,7 +1298,7 @@
         <v>143.078125</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1311,7 +1354,7 @@
         <v>161.04296875</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1367,7 +1410,7 @@
         <v>161.04296875</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1423,12 +1466,12 @@
         <v>1102.6015625</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>36.746198892599999</v>
@@ -1446,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>18.4668970108</v>
@@ -1464,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q15">
         <v>19.070683956100002</v>
@@ -1479,12 +1522,12 @@
         <v>1102.6015625</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>254.481251955</v>
@@ -1502,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>237.360594034</v>
@@ -1520,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q16">
         <v>245.51206803299999</v>
@@ -1535,7 +1578,7 @@
         <v>1102.6015625</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1591,7 +1634,7 @@
         <v>1102.6015625</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1703,7 +1746,7 @@
         <v>143.046875</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1759,7 +1802,7 @@
         <v>161.0390625</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1815,7 +1858,7 @@
         <v>161.0390625</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1871,12 +1914,12 @@
         <v>1838.81640625</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>19.5485880375</v>
@@ -1894,7 +1937,7 @@
         <v>8</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>19.4055550098</v>
@@ -1912,7 +1955,7 @@
         <v>8</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q24">
         <v>19.793821096399999</v>
@@ -1927,12 +1970,12 @@
         <v>1838.81640625</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>231.062651157</v>
@@ -1950,7 +1993,7 @@
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25">
         <v>237.73836612700001</v>
@@ -1968,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="P25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q25">
         <v>241.98763489699999</v>
@@ -1983,7 +2026,7 @@
         <v>1838.81640625</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8</v>
       </c>
@@ -2039,7 +2082,7 @@
         <v>1838.81640625</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2095,7 +2138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
@@ -2151,7 +2194,7 @@
         <v>143.046875</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>12</v>
       </c>
@@ -2207,7 +2250,7 @@
         <v>161.0390625</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12</v>
       </c>
@@ -2263,7 +2306,7 @@
         <v>161.0390625</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>12</v>
       </c>
@@ -2319,12 +2362,12 @@
         <v>2574.671875</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>21.072934866000001</v>
@@ -2342,7 +2385,7 @@
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>20.5104968548</v>
@@ -2360,7 +2403,7 @@
         <v>12</v>
       </c>
       <c r="P33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q33">
         <v>34.206732034700003</v>
@@ -2375,12 +2418,12 @@
         <v>2574.671875</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>231.09725308399999</v>
@@ -2398,7 +2441,7 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>225.01068115199999</v>
@@ -2416,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="P34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q34">
         <v>221.228308916</v>
@@ -2431,7 +2474,7 @@
         <v>2574.671875</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
@@ -2487,7 +2530,7 @@
         <v>2574.671875</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2543,7 +2586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>16</v>
       </c>
@@ -2599,7 +2642,7 @@
         <v>143.046875</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>16</v>
       </c>
@@ -2655,7 +2698,7 @@
         <v>161.0390625</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>16</v>
       </c>
@@ -2711,7 +2754,7 @@
         <v>161.0390625</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>16</v>
       </c>
@@ -2767,12 +2810,12 @@
         <v>3311.00390625</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>39.359436035199998</v>
@@ -2790,7 +2833,7 @@
         <v>16</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>20.5304119587</v>
@@ -2808,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="P42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q42">
         <v>19.749350070999999</v>
@@ -2823,12 +2866,12 @@
         <v>3311.00390625</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>222.47356510200001</v>
@@ -2846,7 +2889,7 @@
         <v>16</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>220.640267134</v>
@@ -2864,7 +2907,7 @@
         <v>16</v>
       </c>
       <c r="P43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q43">
         <v>282.56946992899998</v>
@@ -2879,7 +2922,7 @@
         <v>3311.00390625</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16</v>
       </c>
@@ -2935,7 +2978,7 @@
         <v>3311.00390625</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2991,7 +3034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20</v>
       </c>
@@ -3047,7 +3090,7 @@
         <v>143.046875</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>20</v>
       </c>
@@ -3103,7 +3146,7 @@
         <v>161.0390625</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>20</v>
       </c>
@@ -3159,7 +3202,7 @@
         <v>161.0390625</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>20</v>
       </c>
@@ -3215,12 +3258,12 @@
         <v>4047.5234375</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51">
         <v>35.496112108200002</v>
@@ -3238,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J51">
         <v>20.218611001999999</v>
@@ -3256,7 +3299,7 @@
         <v>20</v>
       </c>
       <c r="P51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q51">
         <v>20.633734941499998</v>
@@ -3271,12 +3314,12 @@
         <v>4047.5234375</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52">
         <v>218.264959812</v>
@@ -3294,7 +3337,7 @@
         <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>233.550317049</v>
@@ -3312,7 +3355,7 @@
         <v>20</v>
       </c>
       <c r="P52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q52">
         <v>248.906787157</v>
@@ -3327,7 +3370,7 @@
         <v>4047.5234375</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>20</v>
       </c>
@@ -3383,7 +3426,7 @@
         <v>4047.5234375</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -3439,7 +3482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>24</v>
       </c>
@@ -3495,7 +3538,7 @@
         <v>143.046875</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>24</v>
       </c>
@@ -3551,7 +3594,7 @@
         <v>161.0390625</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>24</v>
       </c>
@@ -3607,7 +3650,7 @@
         <v>161.0390625</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>24</v>
       </c>
@@ -3663,12 +3706,12 @@
         <v>4783.51171875</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60">
         <v>25.104693174400001</v>
@@ -3686,7 +3729,7 @@
         <v>24</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J60">
         <v>23.436739921600001</v>
@@ -3704,7 +3747,7 @@
         <v>24</v>
       </c>
       <c r="P60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q60">
         <v>24.572770118699999</v>
@@ -3719,12 +3762,12 @@
         <v>4783.51171875</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C61">
         <v>252.10975098599999</v>
@@ -3742,7 +3785,7 @@
         <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J61">
         <v>263.73770308500002</v>
@@ -3760,7 +3803,7 @@
         <v>24</v>
       </c>
       <c r="P61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q61">
         <v>255.201293945</v>
@@ -3775,7 +3818,7 @@
         <v>4783.51171875</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>24</v>
       </c>
@@ -3841,24 +3884,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3866,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>31.3671875</v>
@@ -3880,10 +3923,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>1121.1659028500001</v>
@@ -3894,10 +3937,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>31.90625</v>
@@ -3908,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>8953.0339941999991</v>
@@ -3922,10 +3965,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
         <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
       </c>
       <c r="D6">
         <v>32.09375</v>
@@ -3936,10 +3979,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>9828.8999838799991</v>
@@ -3950,10 +3993,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>239.046875</v>
@@ -3964,10 +4007,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>734.45515799500004</v>
@@ -3978,10 +4021,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>240.53515625</v>
@@ -3992,10 +4035,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>3371.66666412</v>
@@ -4006,10 +4049,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
       </c>
       <c r="D12">
         <v>243.4140625</v>
@@ -4020,10 +4063,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>3272.16667891</v>
@@ -4034,10 +4077,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>439.83984375</v>
@@ -4048,10 +4091,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>657.82542300199998</v>
@@ -4062,10 +4105,10 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>444.10546875</v>
@@ -4076,10 +4119,10 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>2270.9556729800001</v>
@@ -4090,10 +4133,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
       </c>
       <c r="D18">
         <v>445.171875</v>
@@ -4104,10 +4147,10 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>2248.0037970499998</v>
@@ -4118,10 +4161,10 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>644.08984375</v>
@@ -4132,10 +4175,10 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>597.13107395199995</v>
@@ -4146,10 +4189,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <v>644.94921875</v>
@@ -4160,10 +4203,10 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>1595.7928309399999</v>
@@ -4174,10 +4217,10 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
       </c>
       <c r="D24">
         <v>646.1484375</v>
@@ -4188,10 +4231,10 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <v>1582.1059699100001</v>
@@ -4202,10 +4245,10 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26">
         <v>841.921875</v>
@@ -4216,10 +4259,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27">
         <v>594.09942698500004</v>
@@ -4230,10 +4273,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>846.89453125</v>
@@ -4244,10 +4287,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>1467.25494099</v>
@@ -4258,10 +4301,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
         <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
       </c>
       <c r="D30">
         <v>847.421875</v>
@@ -4272,10 +4315,10 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <v>1454.9006998499999</v>
@@ -4286,10 +4329,10 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>1043.19140625</v>
@@ -4300,10 +4343,10 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33">
         <v>565.07057809800006</v>
@@ -4314,10 +4357,10 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34">
         <v>1048.1328125</v>
@@ -4328,10 +4371,10 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35">
         <v>1211.44403291</v>
@@ -4342,10 +4385,10 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
         <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>55</v>
       </c>
       <c r="D36">
         <v>1052.10546875</v>
@@ -4356,10 +4399,10 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37">
         <v>1189.4968068600001</v>
@@ -4370,10 +4413,10 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38">
         <v>1244.48828125</v>
@@ -4384,10 +4427,10 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39">
         <v>576.78452992400003</v>
@@ -4398,10 +4441,10 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40">
         <v>1250.08984375</v>
@@ -4412,10 +4455,10 @@
         <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>1168.78256893</v>
@@ -4426,10 +4469,10 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
         <v>54</v>
-      </c>
-      <c r="C42" t="s">
-        <v>55</v>
       </c>
       <c r="D42">
         <v>1250.7734375</v>
@@ -4440,10 +4483,10 @@
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>1173.2464909600001</v>

--- a/data/referee-performance-jsinuosa.xlsx
+++ b/data/referee-performance-jsinuosa.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="465" windowWidth="28620" windowHeight="16320"/>
+    <workbookView xWindow="-33540" yWindow="468" windowWidth="28620" windowHeight="16320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="j.sinuosa-info" sheetId="4" r:id="rId1"/>
@@ -126,9 +131,6 @@
     <t>Size of ref genome file</t>
   </si>
   <si>
-    <t>time -p angsd -GL 2 -i /N/dc2/scratch/grthomas/qtip/jsinuosa/mapped/SRR5380902-sorted.bam -ref /N/dc2/scratch/grthomas/qtip/jsinuosa/assembly/Trinity.fasta -minQ 0 -doGlf 4 -out jsinuosa-angsd</t>
-  </si>
-  <si>
     <t>912.75 MB</t>
   </si>
   <si>
@@ -211,6 +213,9 @@
   </si>
   <si>
     <t>samtools mpileup -d 999999999 -f $jsindir/assembly/Trinity.fasta -Q 0 -B -o $jsindir/jsin.pileup $jsindir/mapped/SRR5380902-sorted.bam</t>
+  </si>
+  <si>
+    <t>time -p angsd -GL 2 -i /N/dc2/scratch/grthomas/qtip/jsinuosa/mapped/SRR5380902-sorted.bam -ref /N/dc2/scratch/grthomas/qtip/jsinuosa/assembly/Trinity.fasta -minQ 0 -doGlf 4 -out jsin-angsd</t>
   </si>
 </sst>
 </file>
@@ -308,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,7 +348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,25 +559,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -580,15 +585,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>55567</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -596,7 +601,7 @@
         <v>50283993</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -604,15 +609,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -620,7 +625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -628,15 +633,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -647,15 +652,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -663,86 +668,86 @@
         <v>48791504</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -761,37 +766,37 @@
       <selection activeCell="R62" sqref="R62:S62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -967,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>862.50720691699996</v>
@@ -985,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>9515.2610449799995</v>
@@ -1003,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5">
         <v>8640.96923685</v>
@@ -1023,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>1.8799304962199999E-3</v>
@@ -1041,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>2.29740142822E-2</v>
@@ -1059,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6">
         <v>3.0918121337899999E-2</v>
@@ -1079,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>257.91841912299998</v>
@@ -1097,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>312.88279295000001</v>
@@ -1115,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q7">
         <v>311.47061991700002</v>
@@ -1471,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>36.746198892599999</v>
@@ -1489,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15">
         <v>18.4668970108</v>
@@ -1507,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15">
         <v>19.070683956100002</v>
@@ -1527,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>254.481251955</v>
@@ -1545,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>237.360594034</v>
@@ -1563,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q16">
         <v>245.51206803299999</v>
@@ -1919,7 +1924,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>19.5485880375</v>
@@ -1937,7 +1942,7 @@
         <v>8</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J24">
         <v>19.4055550098</v>
@@ -1955,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="P24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q24">
         <v>19.793821096399999</v>
@@ -1975,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>231.062651157</v>
@@ -1993,7 +1998,7 @@
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>237.73836612700001</v>
@@ -2011,7 +2016,7 @@
         <v>8</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q25">
         <v>241.98763489699999</v>
@@ -2367,7 +2372,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>21.072934866000001</v>
@@ -2385,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <v>20.5104968548</v>
@@ -2403,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="P33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q33">
         <v>34.206732034700003</v>
@@ -2423,7 +2428,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>231.09725308399999</v>
@@ -2441,7 +2446,7 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J34">
         <v>225.01068115199999</v>
@@ -2459,7 +2464,7 @@
         <v>12</v>
       </c>
       <c r="P34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q34">
         <v>221.228308916</v>
@@ -2815,7 +2820,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>39.359436035199998</v>
@@ -2833,7 +2838,7 @@
         <v>16</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J42">
         <v>20.5304119587</v>
@@ -2851,7 +2856,7 @@
         <v>16</v>
       </c>
       <c r="P42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q42">
         <v>19.749350070999999</v>
@@ -2871,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43">
         <v>222.47356510200001</v>
@@ -2889,7 +2894,7 @@
         <v>16</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>220.640267134</v>
@@ -2907,7 +2912,7 @@
         <v>16</v>
       </c>
       <c r="P43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q43">
         <v>282.56946992899998</v>
@@ -2922,7 +2927,7 @@
         <v>3311.00390625</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16</v>
       </c>
@@ -3263,7 +3268,7 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>35.496112108200002</v>
@@ -3281,7 +3286,7 @@
         <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J51">
         <v>20.218611001999999</v>
@@ -3299,7 +3304,7 @@
         <v>20</v>
       </c>
       <c r="P51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q51">
         <v>20.633734941499998</v>
@@ -3319,7 +3324,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52">
         <v>218.264959812</v>
@@ -3337,7 +3342,7 @@
         <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J52">
         <v>233.550317049</v>
@@ -3355,7 +3360,7 @@
         <v>20</v>
       </c>
       <c r="P52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q52">
         <v>248.906787157</v>
@@ -3711,7 +3716,7 @@
         <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60">
         <v>25.104693174400001</v>
@@ -3729,7 +3734,7 @@
         <v>24</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J60">
         <v>23.436739921600001</v>
@@ -3747,7 +3752,7 @@
         <v>24</v>
       </c>
       <c r="P60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q60">
         <v>24.572770118699999</v>
@@ -3767,7 +3772,7 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61">
         <v>252.10975098599999</v>
@@ -3785,7 +3790,7 @@
         <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J61">
         <v>263.73770308500002</v>
@@ -3803,7 +3808,7 @@
         <v>24</v>
       </c>
       <c r="P61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q61">
         <v>255.201293945</v>
@@ -3884,24 +3889,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3909,10 +3914,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>31.3671875</v>
@@ -3923,10 +3928,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>1121.1659028500001</v>
@@ -3937,10 +3942,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>31.90625</v>
@@ -3951,10 +3956,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>8953.0339941999991</v>
@@ -3965,10 +3970,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
       </c>
       <c r="D6">
         <v>32.09375</v>
@@ -3979,10 +3984,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>9828.8999838799991</v>
@@ -3993,10 +3998,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <v>239.046875</v>
@@ -4007,10 +4012,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>734.45515799500004</v>
@@ -4021,10 +4026,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>240.53515625</v>
@@ -4035,10 +4040,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>3371.66666412</v>
@@ -4049,10 +4054,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
       </c>
       <c r="D12">
         <v>243.4140625</v>
@@ -4063,10 +4068,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>3272.16667891</v>
@@ -4077,10 +4082,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>439.83984375</v>
@@ -4091,10 +4096,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>657.82542300199998</v>
@@ -4105,10 +4110,10 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>444.10546875</v>
@@ -4119,10 +4124,10 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>2270.9556729800001</v>
@@ -4133,10 +4138,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
       </c>
       <c r="D18">
         <v>445.171875</v>
@@ -4147,10 +4152,10 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>2248.0037970499998</v>
@@ -4161,10 +4166,10 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>644.08984375</v>
@@ -4175,10 +4180,10 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <v>597.13107395199995</v>
@@ -4189,10 +4194,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>644.94921875</v>
@@ -4203,10 +4208,10 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>1595.7928309399999</v>
@@ -4217,10 +4222,10 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
         <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
       </c>
       <c r="D24">
         <v>646.1484375</v>
@@ -4231,10 +4236,10 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>1582.1059699100001</v>
@@ -4245,10 +4250,10 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>841.921875</v>
@@ -4259,10 +4264,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>594.09942698500004</v>
@@ -4273,10 +4278,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>846.89453125</v>
@@ -4287,10 +4292,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>1467.25494099</v>
@@ -4301,10 +4306,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
         <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
       </c>
       <c r="D30">
         <v>847.421875</v>
@@ -4315,10 +4320,10 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31">
         <v>1454.9006998499999</v>
@@ -4329,10 +4334,10 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32">
         <v>1043.19140625</v>
@@ -4343,10 +4348,10 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33">
         <v>565.07057809800006</v>
@@ -4357,10 +4362,10 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34">
         <v>1048.1328125</v>
@@ -4371,10 +4376,10 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35">
         <v>1211.44403291</v>
@@ -4385,10 +4390,10 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
         <v>53</v>
-      </c>
-      <c r="C36" t="s">
-        <v>54</v>
       </c>
       <c r="D36">
         <v>1052.10546875</v>
@@ -4399,10 +4404,10 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37">
         <v>1189.4968068600001</v>
@@ -4413,10 +4418,10 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38">
         <v>1244.48828125</v>
@@ -4427,10 +4432,10 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39">
         <v>576.78452992400003</v>
@@ -4441,10 +4446,10 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40">
         <v>1250.08984375</v>
@@ -4455,10 +4460,10 @@
         <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41">
         <v>1168.78256893</v>
@@ -4469,10 +4474,10 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
         <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>54</v>
       </c>
       <c r="D42">
         <v>1250.7734375</v>
@@ -4483,10 +4488,10 @@
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <v>1173.2464909600001</v>
